--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_22_38.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_22_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1556126.749988703</v>
+        <v>1552114.947256607</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>29001646.18518387</v>
+        <v>29001646.18518386</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6432656.96014034</v>
+        <v>6432656.960140341</v>
       </c>
     </row>
     <row r="9">
@@ -1369,10 +1369,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
         <v>419.0596946068497</v>
@@ -1381,10 +1381,10 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>398.3085625684984</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>58.04236988161366</v>
       </c>
       <c r="T11" t="n">
-        <v>172.608953949758</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>255.612391572116</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>366.2542375070796</v>
       </c>
     </row>
     <row r="12">
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>60.76258397304347</v>
+        <v>60.76258397304346</v>
       </c>
       <c r="T12" t="n">
         <v>136.1757056744559</v>
@@ -1530,25 +1530,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>151.7491504333434</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>163.7030512222169</v>
       </c>
       <c r="H13" t="n">
         <v>134.4334047779237</v>
       </c>
       <c r="I13" t="n">
-        <v>71.96559361603954</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>6.489944470648581</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>152.8999186087154</v>
+        <v>25.86200956816256</v>
       </c>
       <c r="T13" t="n">
         <v>237.097464026797</v>
@@ -1590,10 +1590,10 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1609,7 +1609,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1618,13 +1618,13 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>302.9229304461215</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>398.3085625684984</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>274.5392124624013</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>58.04236988161367</v>
+        <v>58.04236988161366</v>
       </c>
       <c r="T14" t="n">
-        <v>210.0177446442483</v>
+        <v>210.0177446442482</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>255.612391572116</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>396.4480796640693</v>
       </c>
     </row>
     <row r="15">
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>60.76258397304347</v>
+        <v>60.76258397304346</v>
       </c>
       <c r="T15" t="n">
         <v>136.1757056744559</v>
@@ -1764,19 +1764,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>14.92614909825203</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
         <v>163.7030512222169</v>
@@ -1785,7 +1785,7 @@
         <v>134.4334047779237</v>
       </c>
       <c r="I16" t="n">
-        <v>71.96559361603954</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>6.489944470648581</v>
+        <v>6.489944470648574</v>
       </c>
       <c r="S16" t="n">
         <v>152.8999186087154</v>
@@ -1821,16 +1821,16 @@
         <v>237.097464026797</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3339849899809</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>240.1382575886529</v>
+        <v>21.57783315096292</v>
       </c>
       <c r="Y16" t="n">
         <v>224.0793406271554</v>
@@ -1843,22 +1843,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>37.69655227737852</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>416.4160721980427</v>
       </c>
       <c r="E17" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
-        <v>398.3085625684984</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1912,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>103.9958250632888</v>
       </c>
       <c r="F19" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>163.7030512222169</v>
       </c>
       <c r="H19" t="n">
-        <v>105.0084941463123</v>
+        <v>134.4334047779237</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>71.96559361603954</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>6.489944470648574</v>
+        <v>6.489944470648567</v>
       </c>
       <c r="S19" t="n">
         <v>152.8999186087154</v>
@@ -2058,7 +2058,7 @@
         <v>237.097464026797</v>
       </c>
       <c r="U19" t="n">
-        <v>277.3339849899809</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>278.8943527180514</v>
@@ -2070,7 +2070,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="20">
@@ -2089,10 +2089,10 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F20" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>58.04236988161365</v>
       </c>
       <c r="T20" t="n">
-        <v>210.0177446442482</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>255.612391572116</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>353.914520725013</v>
@@ -2146,10 +2146,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y20" t="n">
-        <v>166.681095934718</v>
+        <v>165.8218329644113</v>
       </c>
     </row>
     <row r="21">
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>163.7030512222169</v>
+        <v>26.62073320630297</v>
       </c>
       <c r="H22" t="n">
-        <v>134.4334047779237</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>71.96559361603954</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>6.489944470648574</v>
+        <v>6.489944470648567</v>
       </c>
       <c r="S22" t="n">
         <v>152.8999186087154</v>
@@ -2301,10 +2301,10 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
-        <v>22.2261687143846</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
         <v>224.0793406271554</v>
@@ -2317,16 +2317,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C23" t="n">
-        <v>422.6317226868329</v>
+        <v>154.2332083167485</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>58.04236988161366</v>
+        <v>58.04236988161365</v>
       </c>
       <c r="T23" t="n">
         <v>210.0177446442482</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>126.8180931695683</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="24">
@@ -2523,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>6.489944470648574</v>
+        <v>6.489944470648567</v>
       </c>
       <c r="S25" t="n">
-        <v>152.8999186087154</v>
+        <v>152.8999186087152</v>
       </c>
       <c r="T25" t="n">
         <v>237.097464026797</v>
       </c>
       <c r="U25" t="n">
-        <v>277.3339849899806</v>
+        <v>277.333984989981</v>
       </c>
       <c r="V25" t="n">
         <v>278.8943527180514</v>
@@ -2563,16 +2563,16 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F26" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>290.4253098801792</v>
       </c>
       <c r="H26" t="n">
-        <v>274.5392124624013</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,16 +2605,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>58.04236988161366</v>
+        <v>58.04236988161365</v>
       </c>
       <c r="T26" t="n">
         <v>210.0177446442482</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>255.612391572116</v>
       </c>
       <c r="V26" t="n">
-        <v>291.9317620988569</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2623,7 +2623,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2733,7 +2733,7 @@
         <v>134.4334047779237</v>
       </c>
       <c r="I28" t="n">
-        <v>71.96559361603956</v>
+        <v>71.96559361603954</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>6.489944470648574</v>
+        <v>6.489944470648567</v>
       </c>
       <c r="S28" t="n">
         <v>152.8999186087154</v>
@@ -2794,19 +2794,19 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C29" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F29" t="n">
-        <v>7.823300185344259</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>398.3085625684984</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>11.40934208822556</v>
       </c>
       <c r="T29" t="n">
         <v>210.0177446442482</v>
@@ -2851,16 +2851,16 @@
         <v>255.612391572116</v>
       </c>
       <c r="V29" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X29" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="30">
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>6.489944470648574</v>
+        <v>6.489944470648567</v>
       </c>
       <c r="S31" t="n">
         <v>152.8999186087154</v>
@@ -3028,25 +3028,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D32" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E32" t="n">
-        <v>351.5469027273306</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>398.3085625684984</v>
       </c>
       <c r="H32" t="n">
-        <v>274.5392124624013</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.04236988161366</v>
+        <v>58.04236988161365</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>255.612391572116</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>392.4274362026566</v>
+        <v>371.0170246766086</v>
       </c>
       <c r="X32" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y32" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>6.489944470648574</v>
+        <v>6.489944470648567</v>
       </c>
       <c r="S34" t="n">
-        <v>152.8999186087152</v>
+        <v>152.8999186087154</v>
       </c>
       <c r="T34" t="n">
         <v>237.097464026797</v>
@@ -3268,7 +3268,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -3277,7 +3277,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>398.3085625684984</v>
@@ -3316,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>58.04236988161367</v>
+        <v>58.04236988161365</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>210.0177446442482</v>
       </c>
       <c r="U35" t="n">
         <v>255.612391572116</v>
       </c>
       <c r="V35" t="n">
-        <v>244.0581423696901</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>131.2031034770993</v>
       </c>
     </row>
     <row r="36">
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>60.76258397304347</v>
+        <v>60.76258397304346</v>
       </c>
       <c r="T36" t="n">
         <v>136.1757056744559</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>117.2051523181595</v>
       </c>
       <c r="E37" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
         <v>163.7030512222169</v>
       </c>
       <c r="H37" t="n">
-        <v>134.4334047779237</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>71.96559361603954</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>6.489944470648581</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>152.8999186087154</v>
@@ -3489,10 +3489,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
-        <v>126.3333145004405</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>356.3040831638691</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3514,13 +3514,13 @@
         <v>421.717170453621</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>355.7014496501853</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>274.5392124624013</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,19 +3553,19 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>58.04236988161366</v>
       </c>
       <c r="T38" t="n">
-        <v>210.0177446442483</v>
+        <v>210.0177446442482</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>255.612391572116</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W38" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>60.76258397304347</v>
+        <v>60.76258397304346</v>
       </c>
       <c r="T39" t="n">
         <v>136.1757056744559</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
         <v>170.2528374898731</v>
@@ -3672,13 +3672,13 @@
         <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>163.7030512222169</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>134.4334047779237</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>6.489944470648581</v>
+        <v>6.489944470648574</v>
       </c>
       <c r="S40" t="n">
         <v>152.8999186087154</v>
@@ -3717,7 +3717,7 @@
         <v>237.097464026797</v>
       </c>
       <c r="U40" t="n">
-        <v>216.6326151047463</v>
+        <v>256.5096609744754</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3726,7 +3726,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
         <v>224.0793406271554</v>
@@ -3742,10 +3742,10 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
         <v>421.717170453621</v>
@@ -3757,7 +3757,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>76.12905234012008</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>58.04236988161366</v>
       </c>
       <c r="T41" t="n">
-        <v>210.0177446442483</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>255.612391572116</v>
       </c>
       <c r="V41" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>4.327775302223701</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3869,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>60.76258397304347</v>
+        <v>60.76258397304346</v>
       </c>
       <c r="T42" t="n">
         <v>136.1757056744559</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>188.264309024945</v>
+        <v>128.071026521316</v>
       </c>
       <c r="C43" t="n">
         <v>170.2528374898731</v>
@@ -3912,10 +3912,10 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>163.7030512222169</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>134.4334047779237</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>6.489944470648581</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>152.8999186087154</v>
       </c>
       <c r="T43" t="n">
-        <v>144.2148900459247</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>277.3339849899809</v>
@@ -3963,7 +3963,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3982,7 +3982,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -3991,7 +3991,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>398.3085625684984</v>
+        <v>352.837657560145</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4027,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>58.04236988161367</v>
+        <v>58.04236988161366</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>255.612391572116</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
-        <v>133.1517606676528</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>60.76258397304347</v>
+        <v>60.76258397304346</v>
       </c>
       <c r="T45" t="n">
         <v>136.1757056744559</v>
@@ -4140,22 +4140,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>167.8080673948408</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>163.7030512222169</v>
       </c>
       <c r="H46" t="n">
-        <v>134.4334047779237</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>71.96559361603954</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>6.489944470648581</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>152.8999186087154</v>
@@ -4194,16 +4194,16 @@
         <v>277.3339849899809</v>
       </c>
       <c r="V46" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
-        <v>224.0793406271554</v>
+        <v>148.0026331661086</v>
       </c>
     </row>
   </sheetData>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1293.504102303812</v>
+        <v>892.9487690975901</v>
       </c>
       <c r="C11" t="n">
-        <v>1293.504102303812</v>
+        <v>466.0480391108902</v>
       </c>
       <c r="D11" t="n">
-        <v>870.211481488812</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="E11" t="n">
-        <v>870.211481488812</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="F11" t="n">
-        <v>445.0872996782122</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="G11" t="n">
-        <v>42.75541829589046</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="H11" t="n">
-        <v>42.75541829589046</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="I11" t="n">
-        <v>84.39494262103611</v>
+        <v>84.39494262103631</v>
       </c>
       <c r="J11" t="n">
-        <v>222.2360596072045</v>
+        <v>222.2360596072047</v>
       </c>
       <c r="K11" t="n">
-        <v>437.0691715610004</v>
+        <v>437.0691715610005</v>
       </c>
       <c r="L11" t="n">
-        <v>709.5851800848321</v>
+        <v>709.5851800848322</v>
       </c>
       <c r="M11" t="n">
-        <v>1017.958031365649</v>
+        <v>1017.95803136565</v>
       </c>
       <c r="N11" t="n">
-        <v>1332.07042163564</v>
+        <v>1332.070421635641</v>
       </c>
       <c r="O11" t="n">
-        <v>1626.510864636164</v>
+        <v>1626.510864636165</v>
       </c>
       <c r="P11" t="n">
-        <v>1872.202557977126</v>
+        <v>1872.202557977127</v>
       </c>
       <c r="Q11" t="n">
-        <v>2048.878716272599</v>
+        <v>2048.8787162726</v>
       </c>
       <c r="R11" t="n">
-        <v>2137.770914794523</v>
+        <v>2137.770914794524</v>
       </c>
       <c r="S11" t="n">
-        <v>2137.770914794523</v>
+        <v>2079.14225834845</v>
       </c>
       <c r="T11" t="n">
-        <v>1963.418436057394</v>
+        <v>2079.14225834845</v>
       </c>
       <c r="U11" t="n">
-        <v>1705.224101136064</v>
+        <v>2079.14225834845</v>
       </c>
       <c r="V11" t="n">
-        <v>1705.224101136064</v>
+        <v>2079.14225834845</v>
       </c>
       <c r="W11" t="n">
-        <v>1705.224101136064</v>
+        <v>1682.750908648796</v>
       </c>
       <c r="X11" t="n">
-        <v>1293.504102303812</v>
+        <v>1682.750908648796</v>
       </c>
       <c r="Y11" t="n">
-        <v>1293.504102303812</v>
+        <v>1312.79713338912</v>
       </c>
     </row>
     <row r="12">
@@ -5096,10 +5096,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>598.4330068530408</v>
+        <v>598.4330068530409</v>
       </c>
       <c r="C12" t="n">
-        <v>480.9271033705455</v>
+        <v>480.9271033705456</v>
       </c>
       <c r="D12" t="n">
         <v>377.0871448858306</v>
@@ -5111,28 +5111,28 @@
         <v>178.739380841672</v>
       </c>
       <c r="G12" t="n">
-        <v>85.75954558772926</v>
+        <v>85.75954558772929</v>
       </c>
       <c r="H12" t="n">
-        <v>42.75541829589046</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="I12" t="n">
-        <v>62.98439029745212</v>
+        <v>62.98439029745215</v>
       </c>
       <c r="J12" t="n">
-        <v>142.0237151377161</v>
+        <v>404.4659091426541</v>
       </c>
       <c r="K12" t="n">
-        <v>289.8146695059643</v>
+        <v>552.2568635109023</v>
       </c>
       <c r="L12" t="n">
-        <v>496.0652591283641</v>
+        <v>758.5074531333022</v>
       </c>
       <c r="M12" t="n">
-        <v>739.8954600838654</v>
+        <v>1002.337654088804</v>
       </c>
       <c r="N12" t="n">
-        <v>992.5205257180608</v>
+        <v>1254.962719722999</v>
       </c>
       <c r="O12" t="n">
         <v>1482.454583745858</v>
@@ -5162,10 +5162,10 @@
         <v>1030.530251153148</v>
       </c>
       <c r="X12" t="n">
-        <v>867.0529049198111</v>
+        <v>867.0529049198112</v>
       </c>
       <c r="Y12" t="n">
-        <v>727.3600162731035</v>
+        <v>727.3600162731036</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>742.7019941603903</v>
+        <v>845.2901065953833</v>
       </c>
       <c r="C13" t="n">
-        <v>570.7294310393063</v>
+        <v>845.2901065953833</v>
       </c>
       <c r="D13" t="n">
-        <v>417.447460904616</v>
+        <v>681.9733337221541</v>
       </c>
       <c r="E13" t="n">
-        <v>251.2392550574695</v>
+        <v>515.7651278750076</v>
       </c>
       <c r="F13" t="n">
-        <v>251.2392550574695</v>
+        <v>343.903353649568</v>
       </c>
       <c r="G13" t="n">
-        <v>251.2392550574695</v>
+        <v>178.5467362533892</v>
       </c>
       <c r="H13" t="n">
-        <v>115.4479370999708</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="I13" t="n">
-        <v>42.75541829589046</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="J13" t="n">
-        <v>162.6349221330689</v>
+        <v>162.634922133069</v>
       </c>
       <c r="K13" t="n">
         <v>491.6854607613571</v>
       </c>
       <c r="L13" t="n">
-        <v>601.1799509534051</v>
+        <v>601.1799509534052</v>
       </c>
       <c r="M13" t="n">
-        <v>1130.278252365049</v>
+        <v>717.1560095903586</v>
       </c>
       <c r="N13" t="n">
-        <v>1642.80643034845</v>
+        <v>1210.770261587371</v>
       </c>
       <c r="O13" t="n">
-        <v>1852.309315854113</v>
+        <v>1690.926608658705</v>
       </c>
       <c r="P13" t="n">
-        <v>1936.878861502259</v>
+        <v>2088.252358880159</v>
       </c>
       <c r="Q13" t="n">
-        <v>2137.770914794523</v>
+        <v>2137.770914794524</v>
       </c>
       <c r="R13" t="n">
-        <v>2131.215415329221</v>
+        <v>2137.770914794524</v>
       </c>
       <c r="S13" t="n">
-        <v>1976.771053098196</v>
+        <v>2111.647672806481</v>
       </c>
       <c r="T13" t="n">
-        <v>1737.27866519234</v>
+        <v>1872.155284900625</v>
       </c>
       <c r="U13" t="n">
-        <v>1457.143326818622</v>
+        <v>1592.019946526907</v>
       </c>
       <c r="V13" t="n">
-        <v>1175.431859426651</v>
+        <v>1310.308479134936</v>
       </c>
       <c r="W13" t="n">
-        <v>1175.431859426651</v>
+        <v>1035.456075307449</v>
       </c>
       <c r="X13" t="n">
-        <v>932.8679628724559</v>
+        <v>1035.456075307449</v>
       </c>
       <c r="Y13" t="n">
-        <v>932.8679628724559</v>
+        <v>1035.456075307449</v>
       </c>
     </row>
     <row r="14">
@@ -5254,28 +5254,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1455.283123511905</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="C14" t="n">
-        <v>1028.382393525205</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="D14" t="n">
-        <v>1028.382393525205</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="E14" t="n">
-        <v>1028.382393525205</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="F14" t="n">
-        <v>722.3996354988195</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="G14" t="n">
-        <v>320.0677541164978</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="H14" t="n">
-        <v>42.75541829589046</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="I14" t="n">
-        <v>84.39494262103585</v>
+        <v>84.39494262103608</v>
       </c>
       <c r="J14" t="n">
         <v>222.2360596072042</v>
@@ -5290,40 +5290,40 @@
         <v>1017.958031365649</v>
       </c>
       <c r="N14" t="n">
-        <v>1332.07042163564</v>
+        <v>1332.070421635641</v>
       </c>
       <c r="O14" t="n">
-        <v>1626.510864636164</v>
+        <v>1626.510864636165</v>
       </c>
       <c r="P14" t="n">
-        <v>1872.202557977126</v>
+        <v>1872.202557977127</v>
       </c>
       <c r="Q14" t="n">
-        <v>2048.878716272599</v>
+        <v>2048.8787162726</v>
       </c>
       <c r="R14" t="n">
-        <v>2137.770914794523</v>
+        <v>2137.770914794524</v>
       </c>
       <c r="S14" t="n">
-        <v>2079.142258348449</v>
+        <v>2079.14225834845</v>
       </c>
       <c r="T14" t="n">
-        <v>1867.003122344157</v>
+        <v>1867.003122344158</v>
       </c>
       <c r="U14" t="n">
-        <v>1867.003122344157</v>
+        <v>1608.808787422829</v>
       </c>
       <c r="V14" t="n">
-        <v>1867.003122344157</v>
+        <v>1251.319372549078</v>
       </c>
       <c r="W14" t="n">
-        <v>1867.003122344157</v>
+        <v>854.9280228494254</v>
       </c>
       <c r="X14" t="n">
-        <v>1455.283123511905</v>
+        <v>443.2080240171726</v>
       </c>
       <c r="Y14" t="n">
-        <v>1455.283123511905</v>
+        <v>42.75541829589048</v>
       </c>
     </row>
     <row r="15">
@@ -5333,10 +5333,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>598.4330068530408</v>
+        <v>598.4330068530409</v>
       </c>
       <c r="C15" t="n">
-        <v>480.9271033705455</v>
+        <v>480.9271033705456</v>
       </c>
       <c r="D15" t="n">
         <v>377.0871448858306</v>
@@ -5348,37 +5348,37 @@
         <v>178.739380841672</v>
       </c>
       <c r="G15" t="n">
-        <v>85.75954558772926</v>
+        <v>85.75954558772929</v>
       </c>
       <c r="H15" t="n">
-        <v>42.75541829589046</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="I15" t="n">
-        <v>86.44169614186397</v>
+        <v>86.44169614186399</v>
       </c>
       <c r="J15" t="n">
-        <v>165.481020982128</v>
+        <v>299.0104088577483</v>
       </c>
       <c r="K15" t="n">
-        <v>313.2719753503762</v>
+        <v>446.8013632259966</v>
       </c>
       <c r="L15" t="n">
-        <v>519.5225649727759</v>
+        <v>653.0519528483964</v>
       </c>
       <c r="M15" t="n">
-        <v>763.3527659282772</v>
+        <v>896.8821538038977</v>
       </c>
       <c r="N15" t="n">
-        <v>1015.977831562473</v>
+        <v>1149.507219438093</v>
       </c>
       <c r="O15" t="n">
-        <v>1243.469695585332</v>
+        <v>1376.999083460952</v>
       </c>
       <c r="P15" t="n">
-        <v>1661.89523739668</v>
+        <v>1556.439737111774</v>
       </c>
       <c r="Q15" t="n">
-        <v>1773.7346928875</v>
+        <v>1668.279192602594</v>
       </c>
       <c r="R15" t="n">
         <v>1815.649874842555</v>
@@ -5399,10 +5399,10 @@
         <v>1030.530251153148</v>
       </c>
       <c r="X15" t="n">
-        <v>867.0529049198111</v>
+        <v>867.0529049198112</v>
       </c>
       <c r="Y15" t="n">
-        <v>727.3600162731035</v>
+        <v>727.3600162731036</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>431.6727907347109</v>
+        <v>1017.262669716467</v>
       </c>
       <c r="C16" t="n">
-        <v>431.6727907347109</v>
+        <v>845.2901065953833</v>
       </c>
       <c r="D16" t="n">
-        <v>416.5958724536483</v>
+        <v>681.9733337221541</v>
       </c>
       <c r="E16" t="n">
-        <v>416.5958724536483</v>
+        <v>515.7651278750076</v>
       </c>
       <c r="F16" t="n">
-        <v>416.5958724536483</v>
+        <v>343.903353649568</v>
       </c>
       <c r="G16" t="n">
-        <v>251.2392550574695</v>
+        <v>178.5467362533892</v>
       </c>
       <c r="H16" t="n">
-        <v>115.4479370999708</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="I16" t="n">
-        <v>42.75541829589046</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="J16" t="n">
-        <v>162.6349221330689</v>
+        <v>139.2640696814208</v>
       </c>
       <c r="K16" t="n">
-        <v>491.6854607613571</v>
+        <v>221.0319991956869</v>
       </c>
       <c r="L16" t="n">
-        <v>601.1799509534051</v>
+        <v>330.5264893877348</v>
       </c>
       <c r="M16" t="n">
-        <v>717.1560095903585</v>
+        <v>859.6247907993795</v>
       </c>
       <c r="N16" t="n">
-        <v>1229.684187573759</v>
+        <v>1372.15296878278</v>
       </c>
       <c r="O16" t="n">
-        <v>1539.553111280805</v>
+        <v>1852.309315854113</v>
       </c>
       <c r="P16" t="n">
-        <v>1936.878861502259</v>
+        <v>1936.87886150226</v>
       </c>
       <c r="Q16" t="n">
-        <v>2137.770914794523</v>
+        <v>2137.770914794524</v>
       </c>
       <c r="R16" t="n">
-        <v>2131.215415329221</v>
+        <v>2131.215415329222</v>
       </c>
       <c r="S16" t="n">
         <v>1976.771053098196</v>
       </c>
       <c r="T16" t="n">
-        <v>1737.27866519234</v>
+        <v>1737.278665192341</v>
       </c>
       <c r="U16" t="n">
-        <v>1457.143326818622</v>
+        <v>1737.278665192341</v>
       </c>
       <c r="V16" t="n">
-        <v>1175.431859426651</v>
+        <v>1455.56719780037</v>
       </c>
       <c r="W16" t="n">
-        <v>900.5794555991638</v>
+        <v>1455.56719780037</v>
       </c>
       <c r="X16" t="n">
-        <v>658.0155590449689</v>
+        <v>1433.771406738791</v>
       </c>
       <c r="Y16" t="n">
-        <v>431.6727907347109</v>
+        <v>1207.428638428533</v>
       </c>
     </row>
     <row r="17">
@@ -5491,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1297.964969517054</v>
+        <v>1741.379565094871</v>
       </c>
       <c r="C17" t="n">
-        <v>871.0642395303546</v>
+        <v>1314.478835108171</v>
       </c>
       <c r="D17" t="n">
-        <v>871.0642395303546</v>
+        <v>893.8565399586328</v>
       </c>
       <c r="E17" t="n">
-        <v>445.0872996782122</v>
+        <v>467.8796001064903</v>
       </c>
       <c r="F17" t="n">
-        <v>445.0872996782122</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="G17" t="n">
-        <v>42.75541829589046</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="H17" t="n">
-        <v>42.75541829589046</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="I17" t="n">
-        <v>84.39494262103631</v>
+        <v>84.39494262103619</v>
       </c>
       <c r="J17" t="n">
         <v>222.2360596072047</v>
@@ -5527,40 +5527,40 @@
         <v>1017.958031365649</v>
       </c>
       <c r="N17" t="n">
-        <v>1332.07042163564</v>
+        <v>1332.070421635641</v>
       </c>
       <c r="O17" t="n">
-        <v>1626.510864636164</v>
+        <v>1626.510864636165</v>
       </c>
       <c r="P17" t="n">
-        <v>1872.202557977126</v>
+        <v>1872.202557977127</v>
       </c>
       <c r="Q17" t="n">
-        <v>2048.878716272599</v>
+        <v>2048.8787162726</v>
       </c>
       <c r="R17" t="n">
-        <v>2137.770914794523</v>
+        <v>2137.770914794524</v>
       </c>
       <c r="S17" t="n">
-        <v>2137.770914794523</v>
+        <v>2137.770914794524</v>
       </c>
       <c r="T17" t="n">
-        <v>2137.770914794523</v>
+        <v>2137.770914794524</v>
       </c>
       <c r="U17" t="n">
-        <v>2137.770914794523</v>
+        <v>2137.770914794524</v>
       </c>
       <c r="V17" t="n">
-        <v>2137.770914794523</v>
+        <v>2137.770914794524</v>
       </c>
       <c r="W17" t="n">
-        <v>1741.37956509487</v>
+        <v>1741.379565094871</v>
       </c>
       <c r="X17" t="n">
-        <v>1741.37956509487</v>
+        <v>1741.379565094871</v>
       </c>
       <c r="Y17" t="n">
-        <v>1336.04229504976</v>
+        <v>1741.379565094871</v>
       </c>
     </row>
     <row r="18">
@@ -5570,10 +5570,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>598.4330068530408</v>
+        <v>598.4330068530409</v>
       </c>
       <c r="C18" t="n">
-        <v>480.9271033705455</v>
+        <v>480.9271033705456</v>
       </c>
       <c r="D18" t="n">
         <v>377.0871448858306</v>
@@ -5585,22 +5585,22 @@
         <v>178.739380841672</v>
       </c>
       <c r="G18" t="n">
-        <v>85.75954558772926</v>
+        <v>85.75954558772929</v>
       </c>
       <c r="H18" t="n">
-        <v>42.75541829589046</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="I18" t="n">
-        <v>86.44169614186397</v>
+        <v>62.98439029745217</v>
       </c>
       <c r="J18" t="n">
-        <v>165.481020982128</v>
+        <v>404.465909142654</v>
       </c>
       <c r="K18" t="n">
-        <v>552.2568635109023</v>
+        <v>552.2568635109022</v>
       </c>
       <c r="L18" t="n">
-        <v>758.5074531333022</v>
+        <v>758.5074531333021</v>
       </c>
       <c r="M18" t="n">
         <v>1002.337654088804</v>
@@ -5636,10 +5636,10 @@
         <v>1030.530251153148</v>
       </c>
       <c r="X18" t="n">
-        <v>867.0529049198111</v>
+        <v>867.0529049198112</v>
       </c>
       <c r="Y18" t="n">
-        <v>727.3600162731035</v>
+        <v>727.3600162731036</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>658.0155590449689</v>
+        <v>521.6421603963643</v>
       </c>
       <c r="C19" t="n">
-        <v>486.0429959238849</v>
+        <v>521.6421603963643</v>
       </c>
       <c r="D19" t="n">
-        <v>486.0429959238849</v>
+        <v>521.6421603963643</v>
       </c>
       <c r="E19" t="n">
-        <v>486.0429959238849</v>
+        <v>416.5958724536483</v>
       </c>
       <c r="F19" t="n">
-        <v>314.1812216984453</v>
+        <v>416.5958724536483</v>
       </c>
       <c r="G19" t="n">
-        <v>148.8246043022665</v>
+        <v>251.2392550574696</v>
       </c>
       <c r="H19" t="n">
-        <v>42.75541829589046</v>
+        <v>115.4479370999708</v>
       </c>
       <c r="I19" t="n">
-        <v>42.75541829589046</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="J19" t="n">
-        <v>162.6349221330689</v>
+        <v>84.71320548484809</v>
       </c>
       <c r="K19" t="n">
-        <v>244.402851647335</v>
+        <v>166.4811349991142</v>
       </c>
       <c r="L19" t="n">
-        <v>730.286235430548</v>
+        <v>481.8999867656338</v>
       </c>
       <c r="M19" t="n">
-        <v>1259.384536842193</v>
+        <v>1010.998288177278</v>
       </c>
       <c r="N19" t="n">
-        <v>1523.526466160678</v>
+        <v>1523.526466160679</v>
       </c>
       <c r="O19" t="n">
-        <v>2003.682813232011</v>
+        <v>2003.682813232012</v>
       </c>
       <c r="P19" t="n">
-        <v>2088.252358880158</v>
+        <v>2088.252358880159</v>
       </c>
       <c r="Q19" t="n">
-        <v>2137.770914794523</v>
+        <v>2137.770914794524</v>
       </c>
       <c r="R19" t="n">
-        <v>2131.215415329221</v>
+        <v>2131.215415329222</v>
       </c>
       <c r="S19" t="n">
         <v>1976.771053098196</v>
       </c>
       <c r="T19" t="n">
-        <v>1737.27866519234</v>
+        <v>1737.278665192341</v>
       </c>
       <c r="U19" t="n">
-        <v>1457.143326818622</v>
+        <v>1737.278665192341</v>
       </c>
       <c r="V19" t="n">
-        <v>1175.431859426651</v>
+        <v>1455.56719780037</v>
       </c>
       <c r="W19" t="n">
-        <v>900.5794555991638</v>
+        <v>1180.714793972883</v>
       </c>
       <c r="X19" t="n">
-        <v>658.0155590449689</v>
+        <v>938.1508974186878</v>
       </c>
       <c r="Y19" t="n">
-        <v>658.0155590449689</v>
+        <v>711.8081291084299</v>
       </c>
     </row>
     <row r="20">
@@ -5728,16 +5728,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>745.1919359270976</v>
+        <v>746.0446939686403</v>
       </c>
       <c r="C20" t="n">
-        <v>745.1919359270976</v>
+        <v>746.0446939686403</v>
       </c>
       <c r="D20" t="n">
-        <v>745.1919359270976</v>
+        <v>746.0446939686403</v>
       </c>
       <c r="E20" t="n">
-        <v>745.1919359270976</v>
+        <v>320.0677541164978</v>
       </c>
       <c r="F20" t="n">
         <v>320.0677541164978</v>
@@ -5749,13 +5749,13 @@
         <v>42.75541829589048</v>
       </c>
       <c r="I20" t="n">
-        <v>84.39494262103631</v>
+        <v>84.39494262103608</v>
       </c>
       <c r="J20" t="n">
-        <v>222.2360596072047</v>
+        <v>222.2360596072044</v>
       </c>
       <c r="K20" t="n">
-        <v>437.0691715610005</v>
+        <v>437.0691715610004</v>
       </c>
       <c r="L20" t="n">
         <v>709.5851800848322</v>
@@ -5779,25 +5779,25 @@
         <v>2137.770914794524</v>
       </c>
       <c r="S20" t="n">
-        <v>2137.770914794524</v>
+        <v>2079.14225834845</v>
       </c>
       <c r="T20" t="n">
-        <v>1925.631778790233</v>
+        <v>2079.14225834845</v>
       </c>
       <c r="U20" t="n">
-        <v>1667.437443868903</v>
+        <v>2079.14225834845</v>
       </c>
       <c r="V20" t="n">
-        <v>1309.948028995153</v>
+        <v>1721.652843474699</v>
       </c>
       <c r="W20" t="n">
-        <v>913.5566792954996</v>
+        <v>1325.261493775046</v>
       </c>
       <c r="X20" t="n">
-        <v>913.5566792954996</v>
+        <v>913.5414949427932</v>
       </c>
       <c r="Y20" t="n">
-        <v>745.1919359270976</v>
+        <v>746.0446939686403</v>
       </c>
     </row>
     <row r="21">
@@ -5828,31 +5828,31 @@
         <v>42.75541829589048</v>
       </c>
       <c r="I21" t="n">
-        <v>62.98439029745215</v>
+        <v>86.44169614186401</v>
       </c>
       <c r="J21" t="n">
-        <v>142.0237151377162</v>
+        <v>299.0104088577481</v>
       </c>
       <c r="K21" t="n">
-        <v>289.8146695059644</v>
+        <v>446.8013632259964</v>
       </c>
       <c r="L21" t="n">
-        <v>496.0652591283642</v>
+        <v>653.0519528483962</v>
       </c>
       <c r="M21" t="n">
-        <v>1002.337654088804</v>
+        <v>896.8821538038977</v>
       </c>
       <c r="N21" t="n">
-        <v>1254.962719722999</v>
+        <v>1149.507219438093</v>
       </c>
       <c r="O21" t="n">
-        <v>1482.454583745858</v>
+        <v>1376.999083460952</v>
       </c>
       <c r="P21" t="n">
-        <v>1661.89523739668</v>
+        <v>1556.439737111774</v>
       </c>
       <c r="Q21" t="n">
-        <v>1773.7346928875</v>
+        <v>1668.279192602594</v>
       </c>
       <c r="R21" t="n">
         <v>1815.649874842555</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>926.6384156473184</v>
+        <v>241.5068220226462</v>
       </c>
       <c r="C22" t="n">
-        <v>754.6658525262344</v>
+        <v>241.5068220226462</v>
       </c>
       <c r="D22" t="n">
-        <v>754.6658525262344</v>
+        <v>241.5068220226462</v>
       </c>
       <c r="E22" t="n">
-        <v>588.4576466790879</v>
+        <v>241.5068220226462</v>
       </c>
       <c r="F22" t="n">
-        <v>416.5958724536483</v>
+        <v>69.64504779720662</v>
       </c>
       <c r="G22" t="n">
-        <v>251.2392550574696</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="H22" t="n">
-        <v>115.4479370999708</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="I22" t="n">
         <v>42.75541829589048</v>
@@ -5919,16 +5919,16 @@
         <v>977.5688445445701</v>
       </c>
       <c r="M22" t="n">
-        <v>1506.667145956215</v>
+        <v>1473.977330749054</v>
       </c>
       <c r="N22" t="n">
-        <v>1749.855293085983</v>
+        <v>1588.472585890574</v>
       </c>
       <c r="O22" t="n">
-        <v>1852.309315854113</v>
+        <v>1690.926608658705</v>
       </c>
       <c r="P22" t="n">
-        <v>1936.87886150226</v>
+        <v>2088.252358880159</v>
       </c>
       <c r="Q22" t="n">
         <v>2137.770914794524</v>
@@ -5949,13 +5949,13 @@
         <v>1175.431859426652</v>
       </c>
       <c r="W22" t="n">
-        <v>1175.431859426652</v>
+        <v>900.5794555991647</v>
       </c>
       <c r="X22" t="n">
-        <v>1152.981183957576</v>
+        <v>658.0155590449698</v>
       </c>
       <c r="Y22" t="n">
-        <v>926.6384156473184</v>
+        <v>431.6727907347118</v>
       </c>
     </row>
     <row r="23">
@@ -5965,13 +5965,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1592.592578123333</v>
+        <v>895.5060277963582</v>
       </c>
       <c r="C23" t="n">
-        <v>1165.691848136633</v>
+        <v>739.714908284491</v>
       </c>
       <c r="D23" t="n">
-        <v>1165.691848136633</v>
+        <v>739.714908284491</v>
       </c>
       <c r="E23" t="n">
         <v>739.714908284491</v>
@@ -5983,40 +5983,40 @@
         <v>337.3830269021693</v>
       </c>
       <c r="H23" t="n">
-        <v>60.07069108156194</v>
+        <v>60.07069108156193</v>
       </c>
       <c r="I23" t="n">
         <v>101.7102154067076</v>
       </c>
       <c r="J23" t="n">
-        <v>443.9121332502913</v>
+        <v>631.2805511005022</v>
       </c>
       <c r="K23" t="n">
-        <v>658.7452452040872</v>
+        <v>1150.594152566822</v>
       </c>
       <c r="L23" t="n">
-        <v>931.261253727919</v>
+        <v>1423.110161090653</v>
       </c>
       <c r="M23" t="n">
-        <v>1239.634105008736</v>
+        <v>1731.483012371471</v>
       </c>
       <c r="N23" t="n">
-        <v>1553.746495278727</v>
+        <v>2045.595402641462</v>
       </c>
       <c r="O23" t="n">
-        <v>1848.186938279251</v>
+        <v>2340.035845641986</v>
       </c>
       <c r="P23" t="n">
-        <v>2093.878631620213</v>
+        <v>2585.727538982948</v>
       </c>
       <c r="Q23" t="n">
         <v>2762.403697278422</v>
       </c>
       <c r="R23" t="n">
-        <v>3003.534554078097</v>
+        <v>3003.534554078096</v>
       </c>
       <c r="S23" t="n">
-        <v>2944.905897632023</v>
+        <v>2944.905897632022</v>
       </c>
       <c r="T23" t="n">
         <v>2732.766761627731</v>
@@ -6034,7 +6034,7 @@
         <v>1720.691662132998</v>
       </c>
       <c r="Y23" t="n">
-        <v>1592.592578123333</v>
+        <v>1315.354392087888</v>
       </c>
     </row>
     <row r="24">
@@ -6062,19 +6062,19 @@
         <v>103.0748183734007</v>
       </c>
       <c r="H24" t="n">
-        <v>60.07069108156194</v>
+        <v>60.07069108156193</v>
       </c>
       <c r="I24" t="n">
-        <v>80.29966308312362</v>
+        <v>103.7569689275355</v>
       </c>
       <c r="J24" t="n">
-        <v>159.3389879233877</v>
+        <v>316.3256816434195</v>
       </c>
       <c r="K24" t="n">
-        <v>307.1299422916359</v>
+        <v>464.1166360116678</v>
       </c>
       <c r="L24" t="n">
-        <v>513.3805319140356</v>
+        <v>670.3672256340676</v>
       </c>
       <c r="M24" t="n">
         <v>914.1974265895691</v>
@@ -6126,7 +6126,7 @@
         <v>1107.270461306219</v>
       </c>
       <c r="C25" t="n">
-        <v>935.2978981851351</v>
+        <v>935.2978981851347</v>
       </c>
       <c r="D25" t="n">
         <v>771.9811253119058</v>
@@ -6138,13 +6138,13 @@
         <v>433.9111452393197</v>
       </c>
       <c r="G25" t="n">
-        <v>268.554527843141</v>
+        <v>268.5545278431409</v>
       </c>
       <c r="H25" t="n">
         <v>132.7632098856423</v>
       </c>
       <c r="I25" t="n">
-        <v>60.07069108156194</v>
+        <v>60.07069108156193</v>
       </c>
       <c r="J25" t="n">
         <v>179.9501949187404</v>
@@ -6162,13 +6162,13 @@
         <v>2036.923834413417</v>
       </c>
       <c r="O25" t="n">
-        <v>2517.08018148475</v>
+        <v>2405.316750564378</v>
       </c>
       <c r="P25" t="n">
-        <v>2914.405931706204</v>
+        <v>2802.642500785832</v>
       </c>
       <c r="Q25" t="n">
-        <v>3003.534554078097</v>
+        <v>3003.534554078096</v>
       </c>
       <c r="R25" t="n">
         <v>2996.979054612795</v>
@@ -6180,19 +6180,19 @@
         <v>2603.042304475914</v>
       </c>
       <c r="U25" t="n">
-        <v>2322.906966102196</v>
+        <v>2322.906966102195</v>
       </c>
       <c r="V25" t="n">
-        <v>2041.195498710225</v>
+        <v>2041.195498710224</v>
       </c>
       <c r="W25" t="n">
-        <v>1766.343094882738</v>
+        <v>1766.343094882737</v>
       </c>
       <c r="X25" t="n">
-        <v>1523.779198328543</v>
+        <v>1523.779198328542</v>
       </c>
       <c r="Y25" t="n">
-        <v>1297.436430018285</v>
+        <v>1297.436430018284</v>
       </c>
     </row>
     <row r="26">
@@ -6202,52 +6202,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1612.700559514469</v>
+        <v>2054.724062414872</v>
       </c>
       <c r="C26" t="n">
-        <v>1185.799829527769</v>
+        <v>1627.823332428172</v>
       </c>
       <c r="D26" t="n">
-        <v>762.5072087127692</v>
+        <v>1204.530711613172</v>
       </c>
       <c r="E26" t="n">
-        <v>762.5072087127692</v>
+        <v>778.5537717610297</v>
       </c>
       <c r="F26" t="n">
-        <v>337.3830269021693</v>
+        <v>353.4295899504299</v>
       </c>
       <c r="G26" t="n">
-        <v>337.3830269021693</v>
+        <v>60.07069108156194</v>
       </c>
       <c r="H26" t="n">
-        <v>60.07069108156195</v>
+        <v>60.07069108156194</v>
       </c>
       <c r="I26" t="n">
-        <v>101.7102154067076</v>
+        <v>101.7102154067077</v>
       </c>
       <c r="J26" t="n">
-        <v>239.551332392876</v>
+        <v>631.2805511005022</v>
       </c>
       <c r="K26" t="n">
-        <v>454.3844443466718</v>
+        <v>1302.832810844573</v>
       </c>
       <c r="L26" t="n">
-        <v>726.9004528705036</v>
+        <v>1575.348819368405</v>
       </c>
       <c r="M26" t="n">
-        <v>1035.273304151321</v>
+        <v>1883.721670649222</v>
       </c>
       <c r="N26" t="n">
-        <v>1349.385694421312</v>
+        <v>2197.834060919214</v>
       </c>
       <c r="O26" t="n">
-        <v>1643.826137421836</v>
+        <v>2492.274503919738</v>
       </c>
       <c r="P26" t="n">
-        <v>2246.117289897965</v>
+        <v>2737.9661972607</v>
       </c>
       <c r="Q26" t="n">
-        <v>2914.642355556174</v>
+        <v>2914.642355556173</v>
       </c>
       <c r="R26" t="n">
         <v>3003.534554078097</v>
@@ -6256,22 +6256,22 @@
         <v>2944.905897632023</v>
       </c>
       <c r="T26" t="n">
-        <v>2732.766761627732</v>
+        <v>2732.766761627731</v>
       </c>
       <c r="U26" t="n">
-        <v>2732.766761627732</v>
+        <v>2474.572426706402</v>
       </c>
       <c r="V26" t="n">
-        <v>2437.886193851109</v>
+        <v>2474.572426706402</v>
       </c>
       <c r="W26" t="n">
-        <v>2437.886193851109</v>
+        <v>2474.572426706402</v>
       </c>
       <c r="X26" t="n">
-        <v>2437.886193851109</v>
+        <v>2474.572426706402</v>
       </c>
       <c r="Y26" t="n">
-        <v>2032.548923805999</v>
+        <v>2474.572426706402</v>
       </c>
     </row>
     <row r="27">
@@ -6296,22 +6296,22 @@
         <v>196.0546536273434</v>
       </c>
       <c r="G27" t="n">
-        <v>103.0748183734008</v>
+        <v>103.0748183734007</v>
       </c>
       <c r="H27" t="n">
-        <v>60.07069108156195</v>
+        <v>60.07069108156194</v>
       </c>
       <c r="I27" t="n">
-        <v>80.29966308312362</v>
+        <v>103.7569689275355</v>
       </c>
       <c r="J27" t="n">
-        <v>159.3389879233877</v>
+        <v>316.3256816434195</v>
       </c>
       <c r="K27" t="n">
-        <v>464.1166360116679</v>
+        <v>464.1166360116678</v>
       </c>
       <c r="L27" t="n">
-        <v>670.3672256340677</v>
+        <v>670.3672256340676</v>
       </c>
       <c r="M27" t="n">
         <v>914.1974265895691</v>
@@ -6363,43 +6363,43 @@
         <v>1107.270461306219</v>
       </c>
       <c r="C28" t="n">
-        <v>935.2978981851352</v>
+        <v>935.2978981851346</v>
       </c>
       <c r="D28" t="n">
-        <v>771.9811253119059</v>
+        <v>771.9811253119053</v>
       </c>
       <c r="E28" t="n">
-        <v>605.7729194647594</v>
+        <v>605.7729194647588</v>
       </c>
       <c r="F28" t="n">
-        <v>433.9111452393198</v>
+        <v>433.9111452393194</v>
       </c>
       <c r="G28" t="n">
-        <v>268.554527843141</v>
+        <v>268.5545278431409</v>
       </c>
       <c r="H28" t="n">
         <v>132.7632098856423</v>
       </c>
       <c r="I28" t="n">
-        <v>60.07069108156195</v>
+        <v>60.07069108156194</v>
       </c>
       <c r="J28" t="n">
-        <v>102.0284782705195</v>
+        <v>179.9501949187404</v>
       </c>
       <c r="K28" t="n">
-        <v>431.0790168988077</v>
+        <v>509.0007335470286</v>
       </c>
       <c r="L28" t="n">
-        <v>916.9624006820206</v>
+        <v>883.1206864098697</v>
       </c>
       <c r="M28" t="n">
-        <v>1446.473939781796</v>
+        <v>1412.632225509645</v>
       </c>
       <c r="N28" t="n">
-        <v>1925.160403493046</v>
+        <v>1925.160403493045</v>
       </c>
       <c r="O28" t="n">
-        <v>2405.31675056438</v>
+        <v>2405.316750564379</v>
       </c>
       <c r="P28" t="n">
         <v>2802.642500785833</v>
@@ -6408,28 +6408,28 @@
         <v>3003.534554078097</v>
       </c>
       <c r="R28" t="n">
-        <v>2996.979054612796</v>
+        <v>2996.979054612795</v>
       </c>
       <c r="S28" t="n">
-        <v>2842.53469238177</v>
+        <v>2842.534692381769</v>
       </c>
       <c r="T28" t="n">
         <v>2603.042304475914</v>
       </c>
       <c r="U28" t="n">
-        <v>2322.906966102196</v>
+        <v>2322.906966102195</v>
       </c>
       <c r="V28" t="n">
-        <v>2041.195498710225</v>
+        <v>2041.195498710224</v>
       </c>
       <c r="W28" t="n">
-        <v>1766.343094882738</v>
+        <v>1766.343094882737</v>
       </c>
       <c r="X28" t="n">
-        <v>1523.779198328543</v>
+        <v>1523.779198328542</v>
       </c>
       <c r="Y28" t="n">
-        <v>1297.436430018285</v>
+        <v>1297.436430018284</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1344.143305154944</v>
+        <v>888.3795123160261</v>
       </c>
       <c r="C29" t="n">
-        <v>917.2425751682438</v>
+        <v>888.3795123160261</v>
       </c>
       <c r="D29" t="n">
-        <v>493.949954353244</v>
+        <v>888.3795123160261</v>
       </c>
       <c r="E29" t="n">
-        <v>67.9730145011016</v>
+        <v>462.4025724638836</v>
       </c>
       <c r="F29" t="n">
-        <v>60.07069108156195</v>
+        <v>462.4025724638836</v>
       </c>
       <c r="G29" t="n">
-        <v>60.07069108156195</v>
+        <v>60.07069108156194</v>
       </c>
       <c r="H29" t="n">
-        <v>60.07069108156195</v>
+        <v>60.07069108156194</v>
       </c>
       <c r="I29" t="n">
-        <v>101.7102154067076</v>
+        <v>101.7102154067077</v>
       </c>
       <c r="J29" t="n">
-        <v>239.551332392876</v>
+        <v>631.2805511005022</v>
       </c>
       <c r="K29" t="n">
-        <v>454.3844443466718</v>
+        <v>846.1136630542981</v>
       </c>
       <c r="L29" t="n">
-        <v>1197.759246481001</v>
+        <v>1118.62967157813</v>
       </c>
       <c r="M29" t="n">
-        <v>1883.721670649223</v>
+        <v>1427.002522858947</v>
       </c>
       <c r="N29" t="n">
-        <v>2197.834060919214</v>
+        <v>1741.114913128938</v>
       </c>
       <c r="O29" t="n">
-        <v>2492.274503919738</v>
+        <v>2035.555356129462</v>
       </c>
       <c r="P29" t="n">
-        <v>2737.9661972607</v>
+        <v>2585.727538982948</v>
       </c>
       <c r="Q29" t="n">
-        <v>2914.642355556174</v>
+        <v>2762.403697278422</v>
       </c>
       <c r="R29" t="n">
         <v>3003.534554078097</v>
       </c>
       <c r="S29" t="n">
-        <v>3003.534554078097</v>
+        <v>2992.009966110192</v>
       </c>
       <c r="T29" t="n">
-        <v>2791.395418073806</v>
+        <v>2779.870830105901</v>
       </c>
       <c r="U29" t="n">
-        <v>2533.201083152477</v>
+        <v>2521.676495184572</v>
       </c>
       <c r="V29" t="n">
-        <v>2175.711668278726</v>
+        <v>2521.676495184572</v>
       </c>
       <c r="W29" t="n">
-        <v>2175.711668278726</v>
+        <v>2125.285145484918</v>
       </c>
       <c r="X29" t="n">
-        <v>1763.991669446474</v>
+        <v>1713.565146652666</v>
       </c>
       <c r="Y29" t="n">
-        <v>1763.991669446474</v>
+        <v>1308.227876607556</v>
       </c>
     </row>
     <row r="30">
@@ -6533,37 +6533,37 @@
         <v>196.0546536273434</v>
       </c>
       <c r="G30" t="n">
-        <v>103.0748183734008</v>
+        <v>103.0748183734007</v>
       </c>
       <c r="H30" t="n">
-        <v>60.07069108156195</v>
+        <v>60.07069108156194</v>
       </c>
       <c r="I30" t="n">
-        <v>80.29966308312362</v>
+        <v>103.7569689275355</v>
       </c>
       <c r="J30" t="n">
-        <v>421.7811819283255</v>
+        <v>316.3256816434195</v>
       </c>
       <c r="K30" t="n">
-        <v>569.5721362965737</v>
+        <v>464.1166360116678</v>
       </c>
       <c r="L30" t="n">
-        <v>775.8227259189736</v>
+        <v>670.3672256340676</v>
       </c>
       <c r="M30" t="n">
-        <v>1019.652926874475</v>
+        <v>914.1974265895691</v>
       </c>
       <c r="N30" t="n">
-        <v>1272.27799250867</v>
+        <v>1166.822492223765</v>
       </c>
       <c r="O30" t="n">
-        <v>1499.76985653153</v>
+        <v>1394.314356246624</v>
       </c>
       <c r="P30" t="n">
-        <v>1679.210510182351</v>
+        <v>1573.755009897445</v>
       </c>
       <c r="Q30" t="n">
-        <v>1791.049965673171</v>
+        <v>1685.594465388265</v>
       </c>
       <c r="R30" t="n">
         <v>1832.965147628227</v>
@@ -6600,25 +6600,25 @@
         <v>1107.270461306219</v>
       </c>
       <c r="C31" t="n">
-        <v>935.2978981851351</v>
+        <v>935.2978981851352</v>
       </c>
       <c r="D31" t="n">
-        <v>771.9811253119059</v>
+        <v>771.981125311906</v>
       </c>
       <c r="E31" t="n">
-        <v>605.7729194647594</v>
+        <v>605.7729194647595</v>
       </c>
       <c r="F31" t="n">
-        <v>433.9111452393198</v>
+        <v>433.9111452393199</v>
       </c>
       <c r="G31" t="n">
-        <v>268.554527843141</v>
+        <v>268.5545278431412</v>
       </c>
       <c r="H31" t="n">
         <v>132.7632098856423</v>
       </c>
       <c r="I31" t="n">
-        <v>60.07069108156195</v>
+        <v>60.07069108156194</v>
       </c>
       <c r="J31" t="n">
         <v>179.9501949187404</v>
@@ -6630,13 +6630,13 @@
         <v>994.8841173302415</v>
       </c>
       <c r="M31" t="n">
-        <v>1524.395656430017</v>
+        <v>1412.632225509645</v>
       </c>
       <c r="N31" t="n">
-        <v>1925.160403493046</v>
+        <v>1925.160403493045</v>
       </c>
       <c r="O31" t="n">
-        <v>2405.31675056438</v>
+        <v>2405.316750564379</v>
       </c>
       <c r="P31" t="n">
         <v>2802.642500785833</v>
@@ -6645,7 +6645,7 @@
         <v>3003.534554078097</v>
       </c>
       <c r="R31" t="n">
-        <v>2996.979054612796</v>
+        <v>2996.979054612795</v>
       </c>
       <c r="S31" t="n">
         <v>2842.53469238177</v>
@@ -6676,49 +6676,49 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1115.773529259927</v>
+        <v>1738.572863117726</v>
       </c>
       <c r="C32" t="n">
-        <v>1115.773529259927</v>
+        <v>1311.672133131026</v>
       </c>
       <c r="D32" t="n">
-        <v>692.4809084449275</v>
+        <v>888.3795123160261</v>
       </c>
       <c r="E32" t="n">
-        <v>337.3830269021693</v>
+        <v>462.4025724638836</v>
       </c>
       <c r="F32" t="n">
-        <v>337.3830269021693</v>
+        <v>462.4025724638836</v>
       </c>
       <c r="G32" t="n">
-        <v>337.3830269021693</v>
+        <v>60.07069108156194</v>
       </c>
       <c r="H32" t="n">
         <v>60.07069108156194</v>
       </c>
       <c r="I32" t="n">
-        <v>101.7102154067076</v>
+        <v>101.7102154067077</v>
       </c>
       <c r="J32" t="n">
-        <v>239.551332392876</v>
+        <v>631.2805511005022</v>
       </c>
       <c r="K32" t="n">
-        <v>454.3844443466718</v>
+        <v>846.1136630542981</v>
       </c>
       <c r="L32" t="n">
-        <v>726.9004528705036</v>
+        <v>1118.62967157813</v>
       </c>
       <c r="M32" t="n">
-        <v>1035.273304151321</v>
+        <v>1427.002522858947</v>
       </c>
       <c r="N32" t="n">
-        <v>1349.385694421312</v>
+        <v>1741.114913128938</v>
       </c>
       <c r="O32" t="n">
-        <v>1643.826137421836</v>
+        <v>2035.555356129462</v>
       </c>
       <c r="P32" t="n">
-        <v>2387.200939556164</v>
+        <v>2737.9661972607</v>
       </c>
       <c r="Q32" t="n">
         <v>2914.642355556173</v>
@@ -6733,19 +6733,19 @@
         <v>2944.905897632023</v>
       </c>
       <c r="U32" t="n">
-        <v>2686.711562710693</v>
+        <v>2944.905897632023</v>
       </c>
       <c r="V32" t="n">
-        <v>2329.222147836943</v>
+        <v>2944.905897632023</v>
       </c>
       <c r="W32" t="n">
-        <v>1932.83079813729</v>
+        <v>2570.141226241509</v>
       </c>
       <c r="X32" t="n">
-        <v>1521.110799305037</v>
+        <v>2158.421227409256</v>
       </c>
       <c r="Y32" t="n">
-        <v>1115.773529259927</v>
+        <v>2158.421227409256</v>
       </c>
     </row>
     <row r="33">
@@ -6776,16 +6776,16 @@
         <v>60.07069108156194</v>
       </c>
       <c r="I33" t="n">
-        <v>80.29966308312362</v>
+        <v>103.7569689275355</v>
       </c>
       <c r="J33" t="n">
-        <v>159.3389879233877</v>
+        <v>316.3256816434195</v>
       </c>
       <c r="K33" t="n">
-        <v>307.1299422916359</v>
+        <v>464.1166360116678</v>
       </c>
       <c r="L33" t="n">
-        <v>670.3672256340677</v>
+        <v>670.3672256340676</v>
       </c>
       <c r="M33" t="n">
         <v>914.1974265895691</v>
@@ -6837,13 +6837,13 @@
         <v>1107.270461306219</v>
       </c>
       <c r="C34" t="n">
-        <v>935.2978981851355</v>
+        <v>935.2978981851351</v>
       </c>
       <c r="D34" t="n">
-        <v>771.9811253119062</v>
+        <v>771.9811253119058</v>
       </c>
       <c r="E34" t="n">
-        <v>605.7729194647594</v>
+        <v>605.7729194647593</v>
       </c>
       <c r="F34" t="n">
         <v>433.9111452393198</v>
@@ -6858,22 +6858,22 @@
         <v>60.07069108156194</v>
       </c>
       <c r="J34" t="n">
-        <v>102.0284782705195</v>
+        <v>179.9501949187404</v>
       </c>
       <c r="K34" t="n">
-        <v>431.0790168988077</v>
+        <v>509.0007335470286</v>
       </c>
       <c r="L34" t="n">
-        <v>916.9624006820206</v>
+        <v>994.8841173302415</v>
       </c>
       <c r="M34" t="n">
-        <v>1412.632225509645</v>
+        <v>1524.395656430017</v>
       </c>
       <c r="N34" t="n">
-        <v>1925.160403493045</v>
+        <v>2036.923834413417</v>
       </c>
       <c r="O34" t="n">
-        <v>2405.316750564379</v>
+        <v>2517.08018148475</v>
       </c>
       <c r="P34" t="n">
         <v>2802.642500785833</v>
@@ -6882,7 +6882,7 @@
         <v>3003.534554078097</v>
       </c>
       <c r="R34" t="n">
-        <v>2996.979054612795</v>
+        <v>2996.979054612796</v>
       </c>
       <c r="S34" t="n">
         <v>2842.53469238177</v>
@@ -6913,16 +6913,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1574.424547296119</v>
+        <v>722.3996354988195</v>
       </c>
       <c r="C35" t="n">
-        <v>1147.523817309419</v>
+        <v>722.3996354988195</v>
       </c>
       <c r="D35" t="n">
-        <v>1147.523817309419</v>
+        <v>722.3996354988195</v>
       </c>
       <c r="E35" t="n">
-        <v>1147.523817309419</v>
+        <v>722.3996354988195</v>
       </c>
       <c r="F35" t="n">
         <v>722.3996354988195</v>
@@ -6931,25 +6931,25 @@
         <v>320.0677541164978</v>
       </c>
       <c r="H35" t="n">
-        <v>42.75541829589046</v>
+        <v>42.75541829589047</v>
       </c>
       <c r="I35" t="n">
-        <v>84.39494262103615</v>
+        <v>84.39494262103619</v>
       </c>
       <c r="J35" t="n">
-        <v>222.2360596072045</v>
+        <v>222.2360596072046</v>
       </c>
       <c r="K35" t="n">
-        <v>437.0691715610002</v>
+        <v>437.0691715610003</v>
       </c>
       <c r="L35" t="n">
-        <v>709.585180084832</v>
+        <v>709.5851800848322</v>
       </c>
       <c r="M35" t="n">
         <v>1017.958031365649</v>
       </c>
       <c r="N35" t="n">
-        <v>1332.07042163564</v>
+        <v>1332.070421635641</v>
       </c>
       <c r="O35" t="n">
         <v>1626.510864636164</v>
@@ -6958,7 +6958,7 @@
         <v>1872.202557977126</v>
       </c>
       <c r="Q35" t="n">
-        <v>2048.878716272599</v>
+        <v>2048.8787162726</v>
       </c>
       <c r="R35" t="n">
         <v>2137.770914794523</v>
@@ -6967,22 +6967,22 @@
         <v>2079.142258348449</v>
       </c>
       <c r="T35" t="n">
-        <v>2079.142258348449</v>
+        <v>1867.003122344158</v>
       </c>
       <c r="U35" t="n">
-        <v>1820.947923427119</v>
+        <v>1608.808787422829</v>
       </c>
       <c r="V35" t="n">
-        <v>1574.424547296119</v>
+        <v>1251.319372549078</v>
       </c>
       <c r="W35" t="n">
-        <v>1574.424547296119</v>
+        <v>854.9280228494249</v>
       </c>
       <c r="X35" t="n">
-        <v>1574.424547296119</v>
+        <v>854.9280228494249</v>
       </c>
       <c r="Y35" t="n">
-        <v>1574.424547296119</v>
+        <v>722.3996354988195</v>
       </c>
     </row>
     <row r="36">
@@ -6992,10 +6992,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>598.4330068530408</v>
+        <v>598.4330068530409</v>
       </c>
       <c r="C36" t="n">
-        <v>480.9271033705455</v>
+        <v>480.9271033705456</v>
       </c>
       <c r="D36" t="n">
         <v>377.0871448858306</v>
@@ -7007,37 +7007,37 @@
         <v>178.739380841672</v>
       </c>
       <c r="G36" t="n">
-        <v>85.75954558772926</v>
+        <v>85.75954558772929</v>
       </c>
       <c r="H36" t="n">
-        <v>42.75541829589046</v>
+        <v>42.75541829589047</v>
       </c>
       <c r="I36" t="n">
-        <v>62.98439029745212</v>
+        <v>86.441696141864</v>
       </c>
       <c r="J36" t="n">
-        <v>404.4659091426544</v>
+        <v>299.0104088577481</v>
       </c>
       <c r="K36" t="n">
-        <v>552.2568635109026</v>
+        <v>446.8013632259964</v>
       </c>
       <c r="L36" t="n">
-        <v>758.5074531333023</v>
+        <v>653.0519528483962</v>
       </c>
       <c r="M36" t="n">
-        <v>1002.337654088804</v>
+        <v>896.8821538038977</v>
       </c>
       <c r="N36" t="n">
-        <v>1254.962719722999</v>
+        <v>1149.507219438093</v>
       </c>
       <c r="O36" t="n">
-        <v>1482.454583745858</v>
+        <v>1376.999083460952</v>
       </c>
       <c r="P36" t="n">
-        <v>1661.89523739668</v>
+        <v>1556.439737111774</v>
       </c>
       <c r="Q36" t="n">
-        <v>1773.7346928875</v>
+        <v>1668.279192602594</v>
       </c>
       <c r="R36" t="n">
         <v>1815.649874842555</v>
@@ -7058,10 +7058,10 @@
         <v>1030.530251153148</v>
       </c>
       <c r="X36" t="n">
-        <v>867.0529049198111</v>
+        <v>867.0529049198112</v>
       </c>
       <c r="Y36" t="n">
-        <v>727.3600162731035</v>
+        <v>727.3600162731036</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>582.8040783007947</v>
+        <v>664.571058510271</v>
       </c>
       <c r="C37" t="n">
-        <v>582.8040783007947</v>
+        <v>664.571058510271</v>
       </c>
       <c r="D37" t="n">
-        <v>582.8040783007947</v>
+        <v>546.1820157646553</v>
       </c>
       <c r="E37" t="n">
-        <v>416.5958724536483</v>
+        <v>379.9738099175088</v>
       </c>
       <c r="F37" t="n">
-        <v>416.5958724536483</v>
+        <v>208.1120356920692</v>
       </c>
       <c r="G37" t="n">
-        <v>251.2392550574695</v>
+        <v>42.75541829589047</v>
       </c>
       <c r="H37" t="n">
-        <v>115.4479370999708</v>
+        <v>42.75541829589047</v>
       </c>
       <c r="I37" t="n">
-        <v>42.75541829589046</v>
+        <v>42.75541829589047</v>
       </c>
       <c r="J37" t="n">
-        <v>162.6349221330689</v>
+        <v>84.71320548484809</v>
       </c>
       <c r="K37" t="n">
-        <v>491.6854607613571</v>
+        <v>166.4811349991142</v>
       </c>
       <c r="L37" t="n">
-        <v>793.5055319595104</v>
+        <v>275.9756251911622</v>
       </c>
       <c r="M37" t="n">
-        <v>1322.603833371155</v>
+        <v>698.2420836039705</v>
       </c>
       <c r="N37" t="n">
-        <v>1437.099088512675</v>
+        <v>1210.770261587371</v>
       </c>
       <c r="O37" t="n">
-        <v>1539.553111280805</v>
+        <v>1690.926608658704</v>
       </c>
       <c r="P37" t="n">
-        <v>1936.878861502259</v>
+        <v>2088.252358880158</v>
       </c>
       <c r="Q37" t="n">
         <v>2137.770914794523</v>
       </c>
       <c r="R37" t="n">
-        <v>2131.215415329221</v>
+        <v>2137.770914794523</v>
       </c>
       <c r="S37" t="n">
-        <v>1976.771053098196</v>
+        <v>1983.326552563498</v>
       </c>
       <c r="T37" t="n">
-        <v>1737.27866519234</v>
+        <v>1743.834164657642</v>
       </c>
       <c r="U37" t="n">
-        <v>1457.143326818622</v>
+        <v>1463.698826283924</v>
       </c>
       <c r="V37" t="n">
-        <v>1175.431859426651</v>
+        <v>1181.987358891953</v>
       </c>
       <c r="W37" t="n">
-        <v>900.5794555991638</v>
+        <v>907.1349550644659</v>
       </c>
       <c r="X37" t="n">
-        <v>900.5794555991638</v>
+        <v>664.571058510271</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.9700470128603</v>
+        <v>664.571058510271</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1169.33731478364</v>
+        <v>1251.319372549078</v>
       </c>
       <c r="C38" t="n">
-        <v>1169.33731478364</v>
+        <v>1251.319372549078</v>
       </c>
       <c r="D38" t="n">
-        <v>746.0446939686403</v>
+        <v>828.0267517340787</v>
       </c>
       <c r="E38" t="n">
-        <v>320.0677541164978</v>
+        <v>402.0498118819363</v>
       </c>
       <c r="F38" t="n">
-        <v>320.0677541164978</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="G38" t="n">
-        <v>320.0677541164978</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="H38" t="n">
-        <v>42.75541829589046</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="I38" t="n">
-        <v>84.39494262103615</v>
+        <v>84.39494262103619</v>
       </c>
       <c r="J38" t="n">
-        <v>222.2360596072045</v>
+        <v>222.2360596072046</v>
       </c>
       <c r="K38" t="n">
-        <v>437.0691715610002</v>
+        <v>437.0691715610004</v>
       </c>
       <c r="L38" t="n">
-        <v>709.585180084832</v>
+        <v>709.5851800848322</v>
       </c>
       <c r="M38" t="n">
         <v>1017.958031365649</v>
       </c>
       <c r="N38" t="n">
-        <v>1332.07042163564</v>
+        <v>1332.070421635641</v>
       </c>
       <c r="O38" t="n">
-        <v>1626.510864636164</v>
+        <v>1626.510864636165</v>
       </c>
       <c r="P38" t="n">
-        <v>1872.202557977126</v>
+        <v>1872.202557977127</v>
       </c>
       <c r="Q38" t="n">
-        <v>2048.878716272599</v>
+        <v>2048.8787162726</v>
       </c>
       <c r="R38" t="n">
-        <v>2137.770914794523</v>
+        <v>2137.770914794524</v>
       </c>
       <c r="S38" t="n">
-        <v>2137.770914794523</v>
+        <v>2079.14225834845</v>
       </c>
       <c r="T38" t="n">
-        <v>1925.631778790232</v>
+        <v>1867.003122344158</v>
       </c>
       <c r="U38" t="n">
-        <v>1925.631778790232</v>
+        <v>1608.808787422829</v>
       </c>
       <c r="V38" t="n">
-        <v>1925.631778790232</v>
+        <v>1251.319372549078</v>
       </c>
       <c r="W38" t="n">
-        <v>1529.240429090579</v>
+        <v>1251.319372549078</v>
       </c>
       <c r="X38" t="n">
-        <v>1529.240429090579</v>
+        <v>1251.319372549078</v>
       </c>
       <c r="Y38" t="n">
-        <v>1529.240429090579</v>
+        <v>1251.319372549078</v>
       </c>
     </row>
     <row r="39">
@@ -7229,10 +7229,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>598.4330068530408</v>
+        <v>598.4330068530409</v>
       </c>
       <c r="C39" t="n">
-        <v>480.9271033705455</v>
+        <v>480.9271033705456</v>
       </c>
       <c r="D39" t="n">
         <v>377.0871448858306</v>
@@ -7244,37 +7244,37 @@
         <v>178.739380841672</v>
       </c>
       <c r="G39" t="n">
-        <v>85.75954558772926</v>
+        <v>85.75954558772929</v>
       </c>
       <c r="H39" t="n">
-        <v>42.75541829589046</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="I39" t="n">
-        <v>62.98439029745212</v>
+        <v>86.44169614186399</v>
       </c>
       <c r="J39" t="n">
-        <v>142.0237151377161</v>
+        <v>165.481020982128</v>
       </c>
       <c r="K39" t="n">
-        <v>289.8146695059643</v>
+        <v>313.2719753503762</v>
       </c>
       <c r="L39" t="n">
-        <v>758.5074531333023</v>
+        <v>519.5225649727761</v>
       </c>
       <c r="M39" t="n">
-        <v>1002.337654088804</v>
+        <v>763.3527659282774</v>
       </c>
       <c r="N39" t="n">
-        <v>1254.962719722999</v>
+        <v>1015.977831562473</v>
       </c>
       <c r="O39" t="n">
-        <v>1482.454583745858</v>
+        <v>1243.469695585332</v>
       </c>
       <c r="P39" t="n">
-        <v>1661.89523739668</v>
+        <v>1422.910349236154</v>
       </c>
       <c r="Q39" t="n">
-        <v>1773.7346928875</v>
+        <v>1668.279192602594</v>
       </c>
       <c r="R39" t="n">
         <v>1815.649874842555</v>
@@ -7295,10 +7295,10 @@
         <v>1030.530251153148</v>
       </c>
       <c r="X39" t="n">
-        <v>867.0529049198111</v>
+        <v>867.0529049198112</v>
       </c>
       <c r="Y39" t="n">
-        <v>727.3600162731035</v>
+        <v>727.3600162731036</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1017.262669716467</v>
+        <v>544.2529601373502</v>
       </c>
       <c r="C40" t="n">
-        <v>845.2901065953832</v>
+        <v>372.2803970162662</v>
       </c>
       <c r="D40" t="n">
-        <v>681.9733337221539</v>
+        <v>208.9636241430369</v>
       </c>
       <c r="E40" t="n">
-        <v>515.7651278750075</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="F40" t="n">
-        <v>343.9033536495679</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="G40" t="n">
-        <v>178.5467362533892</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="H40" t="n">
-        <v>42.75541829589046</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="I40" t="n">
-        <v>42.75541829589046</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="J40" t="n">
-        <v>162.6349221330689</v>
+        <v>84.71320548484809</v>
       </c>
       <c r="K40" t="n">
-        <v>491.6854607613571</v>
+        <v>413.7637441131362</v>
       </c>
       <c r="L40" t="n">
-        <v>601.1799509534051</v>
+        <v>899.6471278963492</v>
       </c>
       <c r="M40" t="n">
-        <v>1130.278252365049</v>
+        <v>1428.745429307994</v>
       </c>
       <c r="N40" t="n">
-        <v>1588.472585890574</v>
+        <v>1901.228790463882</v>
       </c>
       <c r="O40" t="n">
-        <v>1690.926608658704</v>
+        <v>2003.682813232012</v>
       </c>
       <c r="P40" t="n">
-        <v>2088.252358880158</v>
+        <v>2088.252358880159</v>
       </c>
       <c r="Q40" t="n">
-        <v>2137.770914794523</v>
+        <v>2137.770914794524</v>
       </c>
       <c r="R40" t="n">
-        <v>2131.215415329221</v>
+        <v>2131.215415329222</v>
       </c>
       <c r="S40" t="n">
         <v>1976.771053098196</v>
       </c>
       <c r="T40" t="n">
-        <v>1737.27866519234</v>
+        <v>1737.278665192341</v>
       </c>
       <c r="U40" t="n">
-        <v>1518.457841854212</v>
+        <v>1478.177997541356</v>
       </c>
       <c r="V40" t="n">
-        <v>1518.457841854212</v>
+        <v>1478.177997541356</v>
       </c>
       <c r="W40" t="n">
-        <v>1243.605438026725</v>
+        <v>1203.325593713869</v>
       </c>
       <c r="X40" t="n">
-        <v>1243.605438026725</v>
+        <v>960.7616971596738</v>
       </c>
       <c r="Y40" t="n">
-        <v>1017.262669716467</v>
+        <v>734.4189288494158</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>893.8565399586328</v>
+        <v>1820.94792342712</v>
       </c>
       <c r="C41" t="n">
-        <v>893.8565399586328</v>
+        <v>1394.04719344042</v>
       </c>
       <c r="D41" t="n">
-        <v>893.8565399586328</v>
+        <v>970.7545726254207</v>
       </c>
       <c r="E41" t="n">
-        <v>467.8796001064903</v>
+        <v>544.7776327732782</v>
       </c>
       <c r="F41" t="n">
-        <v>42.75541829589046</v>
+        <v>119.6534509626784</v>
       </c>
       <c r="G41" t="n">
-        <v>42.75541829589046</v>
+        <v>119.6534509626784</v>
       </c>
       <c r="H41" t="n">
-        <v>42.75541829589046</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="I41" t="n">
-        <v>84.39494262103615</v>
+        <v>84.39494262103631</v>
       </c>
       <c r="J41" t="n">
-        <v>222.2360596072045</v>
+        <v>222.2360596072047</v>
       </c>
       <c r="K41" t="n">
-        <v>437.0691715610002</v>
+        <v>437.0691715610005</v>
       </c>
       <c r="L41" t="n">
-        <v>709.585180084832</v>
+        <v>709.5851800848322</v>
       </c>
       <c r="M41" t="n">
         <v>1017.958031365649</v>
       </c>
       <c r="N41" t="n">
-        <v>1332.07042163564</v>
+        <v>1332.070421635641</v>
       </c>
       <c r="O41" t="n">
-        <v>1626.510864636164</v>
+        <v>1626.510864636165</v>
       </c>
       <c r="P41" t="n">
-        <v>1872.202557977126</v>
+        <v>1872.202557977127</v>
       </c>
       <c r="Q41" t="n">
-        <v>2048.878716272599</v>
+        <v>2048.8787162726</v>
       </c>
       <c r="R41" t="n">
-        <v>2137.770914794523</v>
+        <v>2137.770914794524</v>
       </c>
       <c r="S41" t="n">
-        <v>2137.770914794523</v>
+        <v>2079.14225834845</v>
       </c>
       <c r="T41" t="n">
-        <v>1925.631778790232</v>
+        <v>2079.14225834845</v>
       </c>
       <c r="U41" t="n">
-        <v>1667.437443868902</v>
+        <v>1820.94792342712</v>
       </c>
       <c r="V41" t="n">
-        <v>1309.948028995152</v>
+        <v>1820.94792342712</v>
       </c>
       <c r="W41" t="n">
-        <v>1309.948028995152</v>
+        <v>1820.94792342712</v>
       </c>
       <c r="X41" t="n">
-        <v>898.2280301628991</v>
+        <v>1820.94792342712</v>
       </c>
       <c r="Y41" t="n">
-        <v>893.8565399586328</v>
+        <v>1820.94792342712</v>
       </c>
     </row>
     <row r="42">
@@ -7466,10 +7466,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>598.4330068530408</v>
+        <v>598.4330068530409</v>
       </c>
       <c r="C42" t="n">
-        <v>480.9271033705455</v>
+        <v>480.9271033705456</v>
       </c>
       <c r="D42" t="n">
         <v>377.0871448858306</v>
@@ -7481,25 +7481,25 @@
         <v>178.739380841672</v>
       </c>
       <c r="G42" t="n">
-        <v>85.75954558772926</v>
+        <v>85.75954558772929</v>
       </c>
       <c r="H42" t="n">
-        <v>42.75541829589046</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="I42" t="n">
-        <v>62.98439029745212</v>
+        <v>86.44169614186399</v>
       </c>
       <c r="J42" t="n">
-        <v>142.0237151377161</v>
+        <v>299.0104088577483</v>
       </c>
       <c r="K42" t="n">
-        <v>289.8146695059643</v>
+        <v>446.8013632259966</v>
       </c>
       <c r="L42" t="n">
-        <v>496.0652591283641</v>
+        <v>653.0519528483964</v>
       </c>
       <c r="M42" t="n">
-        <v>739.8954600838654</v>
+        <v>896.8821538038977</v>
       </c>
       <c r="N42" t="n">
         <v>1149.507219438093</v>
@@ -7532,10 +7532,10 @@
         <v>1030.530251153148</v>
       </c>
       <c r="X42" t="n">
-        <v>867.0529049198111</v>
+        <v>867.0529049198112</v>
       </c>
       <c r="Y42" t="n">
-        <v>727.3600162731035</v>
+        <v>727.3600162731036</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>716.1147343627898</v>
+        <v>1017.262669716467</v>
       </c>
       <c r="C43" t="n">
-        <v>544.1421712417058</v>
+        <v>845.2901065953833</v>
       </c>
       <c r="D43" t="n">
-        <v>380.8253983684765</v>
+        <v>681.9733337221541</v>
       </c>
       <c r="E43" t="n">
-        <v>214.61719252133</v>
+        <v>515.7651278750076</v>
       </c>
       <c r="F43" t="n">
-        <v>42.75541829589046</v>
+        <v>343.903353649568</v>
       </c>
       <c r="G43" t="n">
-        <v>42.75541829589046</v>
+        <v>178.5467362533892</v>
       </c>
       <c r="H43" t="n">
-        <v>42.75541829589046</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="I43" t="n">
-        <v>42.75541829589046</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="J43" t="n">
-        <v>162.6349221330689</v>
+        <v>162.634922133069</v>
       </c>
       <c r="K43" t="n">
-        <v>244.402851647335</v>
+        <v>285.9781189255827</v>
       </c>
       <c r="L43" t="n">
-        <v>730.2862354305479</v>
+        <v>395.4726091176307</v>
       </c>
       <c r="M43" t="n">
-        <v>846.2622940675013</v>
+        <v>924.5709105292754</v>
       </c>
       <c r="N43" t="n">
-        <v>1210.77026158737</v>
+        <v>1437.099088512676</v>
       </c>
       <c r="O43" t="n">
-        <v>1690.926608658704</v>
+        <v>1539.553111280806</v>
       </c>
       <c r="P43" t="n">
-        <v>2088.252358880158</v>
+        <v>1936.87886150226</v>
       </c>
       <c r="Q43" t="n">
-        <v>2137.770914794523</v>
+        <v>2137.770914794524</v>
       </c>
       <c r="R43" t="n">
-        <v>2131.215415329221</v>
+        <v>2137.770914794524</v>
       </c>
       <c r="S43" t="n">
-        <v>2131.215415329221</v>
+        <v>1983.326552563498</v>
       </c>
       <c r="T43" t="n">
-        <v>1985.543809222227</v>
+        <v>1983.326552563498</v>
       </c>
       <c r="U43" t="n">
-        <v>1705.408470848508</v>
+        <v>1703.19121418978</v>
       </c>
       <c r="V43" t="n">
-        <v>1423.697003456537</v>
+        <v>1421.479746797809</v>
       </c>
       <c r="W43" t="n">
-        <v>1148.84459962905</v>
+        <v>1146.627342970322</v>
       </c>
       <c r="X43" t="n">
-        <v>906.2807030748554</v>
+        <v>1146.627342970322</v>
       </c>
       <c r="Y43" t="n">
-        <v>906.2807030748554</v>
+        <v>1146.627342970322</v>
       </c>
     </row>
     <row r="44">
@@ -7624,40 +7624,40 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>870.211481488812</v>
+        <v>1247.573895224667</v>
       </c>
       <c r="C44" t="n">
-        <v>870.211481488812</v>
+        <v>1247.573895224667</v>
       </c>
       <c r="D44" t="n">
-        <v>870.211481488812</v>
+        <v>824.281274409667</v>
       </c>
       <c r="E44" t="n">
-        <v>870.211481488812</v>
+        <v>824.281274409667</v>
       </c>
       <c r="F44" t="n">
-        <v>445.0872996782122</v>
+        <v>399.1570925990673</v>
       </c>
       <c r="G44" t="n">
-        <v>42.75541829589046</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="H44" t="n">
-        <v>42.75541829589046</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="I44" t="n">
-        <v>84.39494262103653</v>
+        <v>84.39494262103619</v>
       </c>
       <c r="J44" t="n">
-        <v>222.2360596072049</v>
+        <v>222.2360596072046</v>
       </c>
       <c r="K44" t="n">
-        <v>437.0691715610006</v>
+        <v>437.0691715610004</v>
       </c>
       <c r="L44" t="n">
-        <v>709.5851800848325</v>
+        <v>709.5851800848322</v>
       </c>
       <c r="M44" t="n">
-        <v>1017.95803136565</v>
+        <v>1017.958031365649</v>
       </c>
       <c r="N44" t="n">
         <v>1332.070421635641</v>
@@ -7666,34 +7666,34 @@
         <v>1626.510864636164</v>
       </c>
       <c r="P44" t="n">
-        <v>1872.202557977126</v>
+        <v>1872.202557977127</v>
       </c>
       <c r="Q44" t="n">
-        <v>2048.878716272599</v>
+        <v>2048.8787162726</v>
       </c>
       <c r="R44" t="n">
-        <v>2137.770914794523</v>
+        <v>2137.770914794524</v>
       </c>
       <c r="S44" t="n">
-        <v>2079.142258348449</v>
+        <v>2079.14225834845</v>
       </c>
       <c r="T44" t="n">
-        <v>2079.142258348449</v>
+        <v>2079.14225834845</v>
       </c>
       <c r="U44" t="n">
-        <v>1820.947923427119</v>
+        <v>2079.14225834845</v>
       </c>
       <c r="V44" t="n">
-        <v>1820.947923427119</v>
+        <v>2079.14225834845</v>
       </c>
       <c r="W44" t="n">
-        <v>1424.556573727466</v>
+        <v>2079.14225834845</v>
       </c>
       <c r="X44" t="n">
-        <v>1424.556573727466</v>
+        <v>1667.422259516197</v>
       </c>
       <c r="Y44" t="n">
-        <v>1290.059845780342</v>
+        <v>1667.422259516197</v>
       </c>
     </row>
     <row r="45">
@@ -7703,10 +7703,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>598.4330068530408</v>
+        <v>598.4330068530409</v>
       </c>
       <c r="C45" t="n">
-        <v>480.9271033705455</v>
+        <v>480.9271033705456</v>
       </c>
       <c r="D45" t="n">
         <v>377.0871448858306</v>
@@ -7718,37 +7718,37 @@
         <v>178.739380841672</v>
       </c>
       <c r="G45" t="n">
-        <v>85.75954558772926</v>
+        <v>85.75954558772929</v>
       </c>
       <c r="H45" t="n">
-        <v>42.75541829589046</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="I45" t="n">
-        <v>86.44169614186397</v>
+        <v>86.44169614186399</v>
       </c>
       <c r="J45" t="n">
-        <v>165.481020982128</v>
+        <v>299.0104088577483</v>
       </c>
       <c r="K45" t="n">
-        <v>313.2719753503762</v>
+        <v>446.8013632259966</v>
       </c>
       <c r="L45" t="n">
-        <v>519.5225649727759</v>
+        <v>653.0519528483964</v>
       </c>
       <c r="M45" t="n">
-        <v>763.3527659282772</v>
+        <v>896.8821538038977</v>
       </c>
       <c r="N45" t="n">
-        <v>1015.977831562473</v>
+        <v>1149.507219438093</v>
       </c>
       <c r="O45" t="n">
-        <v>1243.469695585332</v>
+        <v>1376.999083460952</v>
       </c>
       <c r="P45" t="n">
-        <v>1422.910349236153</v>
+        <v>1556.439737111774</v>
       </c>
       <c r="Q45" t="n">
-        <v>1773.7346928875</v>
+        <v>1668.279192602594</v>
       </c>
       <c r="R45" t="n">
         <v>1815.649874842555</v>
@@ -7769,10 +7769,10 @@
         <v>1030.530251153148</v>
       </c>
       <c r="X45" t="n">
-        <v>867.0529049198111</v>
+        <v>867.0529049198112</v>
       </c>
       <c r="Y45" t="n">
-        <v>727.3600162731035</v>
+        <v>727.3600162731036</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>758.9231224043272</v>
+        <v>881.4713517589686</v>
       </c>
       <c r="C46" t="n">
-        <v>586.9505592832431</v>
+        <v>709.4987886378846</v>
       </c>
       <c r="D46" t="n">
-        <v>586.9505592832431</v>
+        <v>546.1820157646553</v>
       </c>
       <c r="E46" t="n">
-        <v>420.7423534360967</v>
+        <v>379.9738099175088</v>
       </c>
       <c r="F46" t="n">
-        <v>251.2392550574695</v>
+        <v>208.1120356920692</v>
       </c>
       <c r="G46" t="n">
-        <v>251.2392550574695</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="H46" t="n">
-        <v>115.4479370999708</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="I46" t="n">
-        <v>42.75541829589046</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="J46" t="n">
-        <v>162.6349221330689</v>
+        <v>162.634922133069</v>
       </c>
       <c r="K46" t="n">
         <v>491.6854607613571</v>
       </c>
       <c r="L46" t="n">
-        <v>977.56884454457</v>
+        <v>977.5688445445701</v>
       </c>
       <c r="M46" t="n">
-        <v>1388.700612480481</v>
+        <v>1093.544903181524</v>
       </c>
       <c r="N46" t="n">
-        <v>1901.228790463881</v>
+        <v>1208.040158323044</v>
       </c>
       <c r="O46" t="n">
-        <v>2003.682813232011</v>
+        <v>1688.196505394377</v>
       </c>
       <c r="P46" t="n">
-        <v>2088.252358880158</v>
+        <v>1936.87886150226</v>
       </c>
       <c r="Q46" t="n">
-        <v>2137.770914794523</v>
+        <v>2137.770914794524</v>
       </c>
       <c r="R46" t="n">
-        <v>2131.215415329221</v>
+        <v>2137.770914794524</v>
       </c>
       <c r="S46" t="n">
-        <v>1976.771053098196</v>
+        <v>1983.326552563498</v>
       </c>
       <c r="T46" t="n">
-        <v>1737.27866519234</v>
+        <v>1743.834164657643</v>
       </c>
       <c r="U46" t="n">
-        <v>1457.143326818622</v>
+        <v>1463.698826283925</v>
       </c>
       <c r="V46" t="n">
-        <v>1175.431859426651</v>
+        <v>1463.698826283925</v>
       </c>
       <c r="W46" t="n">
-        <v>1175.431859426651</v>
+        <v>1463.698826283925</v>
       </c>
       <c r="X46" t="n">
-        <v>1175.431859426651</v>
+        <v>1221.13492972973</v>
       </c>
       <c r="Y46" t="n">
-        <v>949.0890911163929</v>
+        <v>1071.637320471034</v>
       </c>
     </row>
   </sheetData>
@@ -8768,7 +8768,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>265.0931252575131</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8783,7 +8783,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>265.0931252575135</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -8856,19 +8856,19 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>417.2951947219101</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>402.0534574160406</v>
+        <v>382.9484816722147</v>
       </c>
       <c r="O13" t="n">
-        <v>108.1301643813461</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q13" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -9005,7 +9005,7 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>134.8781695713336</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9023,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>241.3988769298247</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9084,25 +9084,25 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>78.70880469517259</v>
+        <v>55.10188302684111</v>
       </c>
       <c r="K16" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>417.2951947219103</v>
       </c>
       <c r="N16" t="n">
         <v>402.0534574160406</v>
       </c>
       <c r="O16" t="n">
-        <v>209.5100009484003</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P16" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
         <v>152.9025226039384</v>
@@ -9239,13 +9239,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>23.69424832768873</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>265.0931252575128</v>
       </c>
       <c r="K18" t="n">
-        <v>241.3988769298243</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9321,19 +9321,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>380.1908016072373</v>
+        <v>208.0044056307794</v>
       </c>
       <c r="M19" t="n">
-        <v>417.29519472191</v>
+        <v>417.2951947219103</v>
       </c>
       <c r="N19" t="n">
-        <v>151.1582567444093</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O19" t="n">
         <v>381.5174992961649</v>
@@ -9476,10 +9476,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>134.8781695713334</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9488,7 +9488,7 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>265.0931252575132</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -9503,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9567,19 +9567,19 @@
         <v>380.1908016072373</v>
       </c>
       <c r="M22" t="n">
-        <v>417.2951947219103</v>
+        <v>384.2751793611421</v>
       </c>
       <c r="N22" t="n">
-        <v>129.9928201901497</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q22" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9637,10 +9637,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>206.4250513711266</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>307.55605001265</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -9658,7 +9658,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>496.8170781441769</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>153.7764225027789</v>
@@ -9713,10 +9713,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>134.8781695713333</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9725,7 +9725,7 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>158.5724178990223</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -9810,13 +9810,13 @@
         <v>402.0534574160406</v>
       </c>
       <c r="O25" t="n">
-        <v>381.5174992961649</v>
+        <v>268.6251448311424</v>
       </c>
       <c r="P25" t="n">
         <v>315.9153581548562</v>
       </c>
       <c r="Q25" t="n">
-        <v>40.01016813891722</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9874,10 +9874,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>461.3324725154295</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -9892,10 +9892,10 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>360.2014738739063</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>496.8170781441769</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -9950,13 +9950,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>134.8781695713333</v>
       </c>
       <c r="K27" t="n">
-        <v>158.5724178990222</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -10032,19 +10032,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K28" t="n">
         <v>249.7804132464869</v>
       </c>
       <c r="L28" t="n">
-        <v>380.1908016072373</v>
+        <v>267.2984471422153</v>
       </c>
       <c r="M28" t="n">
         <v>417.7126065281028</v>
       </c>
       <c r="N28" t="n">
-        <v>367.8699076461924</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O28" t="n">
         <v>381.5174992961649</v>
@@ -10111,16 +10111,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>475.6149430409063</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>381.4036089771767</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -10129,13 +10129,13 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>307.5560500126505</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10187,10 +10187,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
-        <v>265.093125257513</v>
+        <v>134.8781695713333</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10214,7 +10214,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10278,10 +10278,10 @@
         <v>380.1908016072373</v>
       </c>
       <c r="M31" t="n">
-        <v>417.7126065281028</v>
+        <v>304.8202520630808</v>
       </c>
       <c r="N31" t="n">
-        <v>289.1611029510198</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O31" t="n">
         <v>381.5174992961649</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -10366,10 +10366,10 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>502.7102109023909</v>
+        <v>461.3324725154296</v>
       </c>
       <c r="Q32" t="n">
-        <v>354.3083411156921</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -10424,16 +10424,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>134.8781695713333</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>158.5724178990223</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10506,7 +10506,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K34" t="n">
         <v>249.7804132464869</v>
@@ -10515,7 +10515,7 @@
         <v>380.1908016072373</v>
       </c>
       <c r="M34" t="n">
-        <v>383.5290567582534</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N34" t="n">
         <v>402.0534574160406</v>
@@ -10524,7 +10524,7 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P34" t="n">
-        <v>315.9153581548562</v>
+        <v>203.0230036898344</v>
       </c>
       <c r="Q34" t="n">
         <v>152.9025226039384</v>
@@ -10661,10 +10661,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
-        <v>265.0931252575133</v>
+        <v>134.8781695713334</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10688,7 +10688,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10743,28 +10743,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>194.2682636425307</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>417.2951947219101</v>
+        <v>309.3842421978331</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P37" t="n">
         <v>315.9153581548562</v>
       </c>
       <c r="Q37" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10898,7 +10898,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -10907,7 +10907,7 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>265.0931252575134</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10922,10 +10922,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>134.8781695713338</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10980,25 +10980,25 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>249.7804132464869</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M40" t="n">
-        <v>417.2951947219101</v>
+        <v>417.2951947219103</v>
       </c>
       <c r="N40" t="n">
-        <v>347.1707862464689</v>
+        <v>361.6041474892606</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -11135,10 +11135,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>134.8781695713336</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11150,7 +11150,7 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>158.5724178990227</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -11220,25 +11220,25 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>41.99521947297741</v>
       </c>
       <c r="L43" t="n">
-        <v>380.1908016072373</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>417.2951947219103</v>
       </c>
       <c r="N43" t="n">
-        <v>252.5380933114636</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O43" t="n">
-        <v>381.5174992961649</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
         <v>315.9153581548562</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11375,7 +11375,7 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>134.8781695713336</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11396,10 +11396,10 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>241.3988769298248</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11463,19 +11463,19 @@
         <v>380.1908016072373</v>
       </c>
       <c r="M46" t="n">
-        <v>298.1370800999573</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>402.0534574160406</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>165.7705156158952</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23257,10 +23257,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23269,10 +23269,10 @@
         <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>398.3085625684984</v>
       </c>
       <c r="H11" t="n">
         <v>274.5392124624013</v>
@@ -23308,25 +23308,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>58.04236988161367</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>37.40879069449025</v>
+        <v>210.0177446442482</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>255.612391572116</v>
       </c>
       <c r="V11" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
-        <v>401.2838973446586</v>
+        <v>35.02965983757895</v>
       </c>
     </row>
     <row r="12">
@@ -23418,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>9.934454711153592</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>163.7030512222169</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>71.96559361603954</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>6.489944470648574</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>127.0379090405529</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23478,10 +23478,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
         <v>224.0793406271554</v>
@@ -23497,7 +23497,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
         <v>419.0596946068497</v>
@@ -23506,13 +23506,13 @@
         <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
-        <v>117.9500095463723</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>398.3085625684984</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>274.5392124624013</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23551,19 +23551,19 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>255.612391572116</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>401.2838973446586</v>
+        <v>4.835817680589287</v>
       </c>
     </row>
     <row r="15">
@@ -23652,19 +23652,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>146.757456046245</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>71.96559361603954</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23709,16 +23709,16 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>277.3339849899809</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>218.56042443769</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23731,22 +23731,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>377.9533283712362</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>419.0596946068497</v>
+        <v>2.643622408807005</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>398.3085625684984</v>
       </c>
       <c r="H17" t="n">
         <v>274.5392124624013</v>
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>58.04236988161366</v>
+        <v>58.04236988161365</v>
       </c>
       <c r="T17" t="n">
         <v>210.0177446442482</v>
@@ -23800,7 +23800,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="18">
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>60.55029872538621</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>29.42491063161143</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>71.96559361603954</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23946,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>277.3339849899809</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23977,10 +23977,10 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E20" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G20" t="n">
         <v>398.3085625684984</v>
@@ -24019,13 +24019,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>58.04236988161366</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>210.0177446442482</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>255.612391572116</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24034,10 +24034,10 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>234.6028014099405</v>
+        <v>235.4620643802473</v>
       </c>
     </row>
     <row r="21">
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>137.082318015914</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>134.4334047779237</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>71.96559361603954</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24189,10 +24189,10 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>217.9120888742683</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24205,16 +24205,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>268.3985143700843</v>
       </c>
       <c r="D23" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F23" t="n">
         <v>420.8729399924937</v>
@@ -24274,7 +24274,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y23" t="n">
-        <v>274.4658041750903</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24451,16 +24451,16 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>398.3085625684984</v>
+        <v>107.8832526883192</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>274.5392124624013</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24499,10 +24499,10 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>255.612391572116</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>61.98275862615611</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W26" t="n">
         <v>392.4274362026566</v>
@@ -24511,7 +24511,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="27">
@@ -24682,19 +24682,19 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>413.0496398071495</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G29" t="n">
-        <v>398.3085625684984</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>274.5392124624013</v>
@@ -24730,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>58.04236988161366</v>
+        <v>46.6330277933881</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -24739,16 +24739,16 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W29" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24916,25 +24916,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>70.17026772629038</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G32" t="n">
-        <v>398.3085625684984</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>274.5392124624013</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24973,19 +24973,19 @@
         <v>210.0177446442482</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>255.612391572116</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>21.41041152604799</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="33">
@@ -25156,7 +25156,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D35" t="n">
         <v>419.0596946068497</v>
@@ -25165,7 +25165,7 @@
         <v>421.717170453621</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -25207,22 +25207,22 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>210.0177446442483</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>109.8563783553229</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y35" t="n">
-        <v>401.2838973446586</v>
+        <v>270.0807938675592</v>
       </c>
     </row>
     <row r="36">
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>44.47845282633745</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>134.4334047779237</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>71.96559361603954</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>6.489944470648567</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25377,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.7460261267149</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="38">
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>59.34579748474562</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C38" t="n">
         <v>422.6317226868329</v>
@@ -25402,13 +25402,13 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>420.8729399924937</v>
+        <v>65.1714903423084</v>
       </c>
       <c r="G38" t="n">
         <v>398.3085625684984</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>274.5392124624013</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25441,19 +25441,19 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>58.04236988161367</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>255.612391572116</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X38" t="n">
         <v>407.6027988439302</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25560,13 +25560,13 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>163.7030512222169</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>134.4334047779237</v>
       </c>
       <c r="I40" t="n">
         <v>71.96559361603954</v>
@@ -25605,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>60.70136988523458</v>
+        <v>20.82432401550551</v>
       </c>
       <c r="V40" t="n">
         <v>278.8943527180514</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25630,10 +25630,10 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25645,7 +25645,7 @@
         <v>398.3085625684984</v>
       </c>
       <c r="H41" t="n">
-        <v>274.5392124624013</v>
+        <v>198.4101601222812</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25678,25 +25678,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>58.04236988161367</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>210.0177446442482</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
-        <v>396.9561220424349</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="42">
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>60.19328250362898</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25800,10 +25800,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>163.7030512222169</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>134.4334047779237</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>71.96559361603954</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>6.489944470648574</v>
       </c>
       <c r="S43" t="n">
-        <v>152.8999186087154</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>92.88257398087234</v>
+        <v>237.097464026797</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
         <v>224.0793406271554</v>
@@ -25870,7 +25870,7 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>421.717170453621</v>
@@ -25879,7 +25879,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>45.47090500835344</v>
       </c>
       <c r="H44" t="n">
         <v>274.5392124624013</v>
@@ -25918,22 +25918,22 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>210.0177446442483</v>
+        <v>210.0177446442482</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>255.612391572116</v>
       </c>
       <c r="V44" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>268.1321366770057</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="45">
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>2.335089088344347</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>163.7030512222169</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>134.4334047779237</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>71.96559361603954</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>6.489944470648574</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26082,16 +26082,16 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>76.07670746104679</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>297727.3676227585</v>
+        <v>297727.3676227586</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>297727.3676227585</v>
+        <v>297727.3676227586</v>
       </c>
     </row>
     <row r="7">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>416176.4913259416</v>
+        <v>416176.4913259415</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>416176.4913259416</v>
+        <v>416176.4913259415</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>297727.3676227585</v>
+        <v>297727.3676227586</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>297727.3676227585</v>
+        <v>297727.3676227586</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>297727.3676227585</v>
+        <v>297727.3676227586</v>
       </c>
     </row>
   </sheetData>
@@ -26313,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>545069.3508420008</v>
+        <v>545069.3508420009</v>
       </c>
       <c r="C2" t="n">
-        <v>545069.3508420008</v>
+        <v>545069.350842001</v>
       </c>
       <c r="D2" t="n">
-        <v>545069.3508420008</v>
+        <v>545069.3508420009</v>
       </c>
       <c r="E2" t="n">
         <v>324126.1116988398</v>
@@ -26328,34 +26328,34 @@
         <v>324126.1116988397</v>
       </c>
       <c r="G2" t="n">
-        <v>324126.1116988396</v>
+        <v>324126.1116988397</v>
       </c>
       <c r="H2" t="n">
         <v>324126.1116988398</v>
       </c>
       <c r="I2" t="n">
+        <v>406795.3570472562</v>
+      </c>
+      <c r="J2" t="n">
+        <v>406795.3570472559</v>
+      </c>
+      <c r="K2" t="n">
         <v>406795.3570472561</v>
       </c>
-      <c r="J2" t="n">
+      <c r="L2" t="n">
         <v>406795.357047256</v>
       </c>
-      <c r="K2" t="n">
-        <v>406795.3570472563</v>
-      </c>
-      <c r="L2" t="n">
-        <v>406795.3570472561</v>
-      </c>
       <c r="M2" t="n">
-        <v>324126.1116988396</v>
+        <v>324126.1116988399</v>
       </c>
       <c r="N2" t="n">
-        <v>324126.1116988396</v>
+        <v>324126.1116988398</v>
       </c>
       <c r="O2" t="n">
+        <v>324126.1116988399</v>
+      </c>
+      <c r="P2" t="n">
         <v>324126.1116988398</v>
-      </c>
-      <c r="P2" t="n">
-        <v>324126.1116988396</v>
       </c>
     </row>
     <row r="3">
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>57556.18318048175</v>
+        <v>57556.18318048172</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>79247.32527160784</v>
+        <v>79247.32527160773</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26429,37 +26429,37 @@
         <v>25221.81201970855</v>
       </c>
       <c r="F4" t="n">
-        <v>25221.81201970856</v>
+        <v>25221.81201970855</v>
       </c>
       <c r="G4" t="n">
-        <v>25221.81201970853</v>
+        <v>25221.81201970854</v>
       </c>
       <c r="H4" t="n">
         <v>25221.81201970854</v>
       </c>
       <c r="I4" t="n">
-        <v>74187.90979668249</v>
+        <v>74187.90979668243</v>
       </c>
       <c r="J4" t="n">
-        <v>74187.90979668254</v>
+        <v>74187.90979668248</v>
       </c>
       <c r="K4" t="n">
-        <v>74187.90979668254</v>
+        <v>74187.90979668246</v>
       </c>
       <c r="L4" t="n">
-        <v>74187.90979668252</v>
+        <v>74187.90979668248</v>
       </c>
       <c r="M4" t="n">
+        <v>25221.81201970854</v>
+      </c>
+      <c r="N4" t="n">
+        <v>25221.81201970854</v>
+      </c>
+      <c r="O4" t="n">
         <v>25221.81201970855</v>
       </c>
-      <c r="N4" t="n">
+      <c r="P4" t="n">
         <v>25221.81201970855</v>
-      </c>
-      <c r="O4" t="n">
-        <v>25221.81201970854</v>
-      </c>
-      <c r="P4" t="n">
-        <v>25221.81201970854</v>
       </c>
     </row>
     <row r="5">
@@ -26478,13 +26478,13 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>43269.71441650124</v>
+        <v>43269.71441650125</v>
       </c>
       <c r="F5" t="n">
-        <v>43269.71441650124</v>
+        <v>43269.71441650125</v>
       </c>
       <c r="G5" t="n">
-        <v>43269.71441650124</v>
+        <v>43269.71441650125</v>
       </c>
       <c r="H5" t="n">
         <v>43269.71441650125</v>
@@ -26493,10 +26493,10 @@
         <v>56429.32173361156</v>
       </c>
       <c r="J5" t="n">
-        <v>56429.32173361157</v>
+        <v>56429.32173361156</v>
       </c>
       <c r="K5" t="n">
-        <v>56429.32173361157</v>
+        <v>56429.32173361156</v>
       </c>
       <c r="L5" t="n">
         <v>56429.32173361156</v>
@@ -26505,13 +26505,13 @@
         <v>43269.71441650124</v>
       </c>
       <c r="N5" t="n">
-        <v>43269.71441650124</v>
+        <v>43269.71441650125</v>
       </c>
       <c r="O5" t="n">
-        <v>43269.71441650124</v>
+        <v>43269.71441650125</v>
       </c>
       <c r="P5" t="n">
-        <v>43269.71441650124</v>
+        <v>43269.71441650125</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>184775.5696307724</v>
+        <v>184753.8559892762</v>
       </c>
       <c r="C6" t="n">
-        <v>184775.5696307724</v>
+        <v>184753.8559892763</v>
       </c>
       <c r="D6" t="n">
-        <v>184775.5696307724</v>
+        <v>184753.8559892762</v>
       </c>
       <c r="E6" t="n">
-        <v>-301055.0706596237</v>
+        <v>-301658.2138778124</v>
       </c>
       <c r="F6" t="n">
-        <v>255634.5852626299</v>
+        <v>255031.442044441</v>
       </c>
       <c r="G6" t="n">
-        <v>255634.5852626299</v>
+        <v>255031.442044441</v>
       </c>
       <c r="H6" t="n">
-        <v>255634.58526263</v>
+        <v>255031.4420444411</v>
       </c>
       <c r="I6" t="n">
-        <v>218621.9423364803</v>
+        <v>218236.3497639454</v>
       </c>
       <c r="J6" t="n">
-        <v>276178.1255169619</v>
+        <v>275792.5329444267</v>
       </c>
       <c r="K6" t="n">
-        <v>276178.1255169622</v>
+        <v>275792.5329444269</v>
       </c>
       <c r="L6" t="n">
-        <v>276178.125516962</v>
+        <v>275792.5329444268</v>
       </c>
       <c r="M6" t="n">
-        <v>176387.259991022</v>
+        <v>175784.1167728335</v>
       </c>
       <c r="N6" t="n">
-        <v>255634.5852626298</v>
+        <v>255031.4420444411</v>
       </c>
       <c r="O6" t="n">
-        <v>255634.58526263</v>
+        <v>255031.4420444412</v>
       </c>
       <c r="P6" t="n">
-        <v>255634.5852626298</v>
+        <v>255031.4420444411</v>
       </c>
     </row>
   </sheetData>
@@ -26746,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>494.293417964426</v>
+        <v>494.2934179644261</v>
       </c>
       <c r="F3" t="n">
-        <v>494.293417964426</v>
+        <v>494.2934179644261</v>
       </c>
       <c r="G3" t="n">
+        <v>494.2934179644262</v>
+      </c>
+      <c r="H3" t="n">
+        <v>494.2934179644262</v>
+      </c>
+      <c r="I3" t="n">
+        <v>494.2934179644262</v>
+      </c>
+      <c r="J3" t="n">
+        <v>494.2934179644262</v>
+      </c>
+      <c r="K3" t="n">
+        <v>494.2934179644262</v>
+      </c>
+      <c r="L3" t="n">
+        <v>494.2934179644262</v>
+      </c>
+      <c r="M3" t="n">
+        <v>494.2934179644262</v>
+      </c>
+      <c r="N3" t="n">
         <v>494.2934179644261</v>
       </c>
-      <c r="H3" t="n">
+      <c r="O3" t="n">
         <v>494.2934179644261</v>
       </c>
-      <c r="I3" t="n">
+      <c r="P3" t="n">
         <v>494.2934179644261</v>
-      </c>
-      <c r="J3" t="n">
-        <v>494.2934179644261</v>
-      </c>
-      <c r="K3" t="n">
-        <v>494.2934179644261</v>
-      </c>
-      <c r="L3" t="n">
-        <v>494.2934179644261</v>
-      </c>
-      <c r="M3" t="n">
-        <v>494.293417964426</v>
-      </c>
-      <c r="N3" t="n">
-        <v>494.293417964426</v>
-      </c>
-      <c r="O3" t="n">
-        <v>494.293417964426</v>
-      </c>
-      <c r="P3" t="n">
-        <v>494.293417964426</v>
       </c>
     </row>
     <row r="4">
@@ -26798,40 +26798,40 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>534.4427286986307</v>
+        <v>534.442728698631</v>
       </c>
       <c r="F4" t="n">
-        <v>534.4427286986307</v>
+        <v>534.442728698631</v>
       </c>
       <c r="G4" t="n">
-        <v>534.4427286986307</v>
+        <v>534.442728698631</v>
       </c>
       <c r="H4" t="n">
         <v>534.442728698631</v>
       </c>
       <c r="I4" t="n">
+        <v>750.8836385195241</v>
+      </c>
+      <c r="J4" t="n">
         <v>750.8836385195242</v>
       </c>
-      <c r="J4" t="n">
-        <v>750.8836385195243</v>
-      </c>
       <c r="K4" t="n">
-        <v>750.8836385195243</v>
+        <v>750.8836385195242</v>
       </c>
       <c r="L4" t="n">
         <v>750.8836385195242</v>
       </c>
       <c r="M4" t="n">
-        <v>534.4427286986307</v>
+        <v>534.4427286986308</v>
       </c>
       <c r="N4" t="n">
-        <v>534.4427286986307</v>
+        <v>534.442728698631</v>
       </c>
       <c r="O4" t="n">
-        <v>534.4427286986307</v>
+        <v>534.442728698631</v>
       </c>
       <c r="P4" t="n">
-        <v>534.4427286986307</v>
+        <v>534.442728698631</v>
       </c>
     </row>
   </sheetData>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>494.293417964426</v>
+        <v>494.2934179644261</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>534.4427286986307</v>
+        <v>534.442728698631</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>216.4409098208932</v>
+        <v>216.4409098208931</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>318.0018188777381</v>
+        <v>318.0018188777376</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>534.4427286986307</v>
+        <v>534.442728698631</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31755,34 +31755,34 @@
         <v>1.98710921794744</v>
       </c>
       <c r="H11" t="n">
-        <v>20.35048227830422</v>
+        <v>20.35048227830423</v>
       </c>
       <c r="I11" t="n">
-        <v>76.60802812491875</v>
+        <v>76.60802812491876</v>
       </c>
       <c r="J11" t="n">
         <v>168.6534109867667</v>
       </c>
       <c r="K11" t="n">
-        <v>252.7677441824818</v>
+        <v>252.7677441824819</v>
       </c>
       <c r="L11" t="n">
         <v>313.5807379112409</v>
       </c>
       <c r="M11" t="n">
-        <v>348.9189914659136</v>
+        <v>348.9189914659137</v>
       </c>
       <c r="N11" t="n">
-        <v>354.5648655314068</v>
+        <v>354.5648655314069</v>
       </c>
       <c r="O11" t="n">
         <v>334.805548245442</v>
       </c>
       <c r="P11" t="n">
-        <v>285.7487894273645</v>
+        <v>285.7487894273646</v>
       </c>
       <c r="Q11" t="n">
-        <v>214.5854405596217</v>
+        <v>214.5854405596218</v>
       </c>
       <c r="R11" t="n">
         <v>124.822749411891</v>
@@ -31791,10 +31791,10 @@
         <v>45.28125130397733</v>
       </c>
       <c r="T11" t="n">
-        <v>8.698570601564922</v>
+        <v>8.698570601564924</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1589687374357951</v>
+        <v>0.1589687374357952</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.063197163168765</v>
+        <v>1.063197163168766</v>
       </c>
       <c r="H12" t="n">
         <v>10.26824628639308</v>
@@ -31846,34 +31846,34 @@
         <v>171.6830261244932</v>
       </c>
       <c r="L12" t="n">
-        <v>230.8490156257444</v>
+        <v>230.8490156257445</v>
       </c>
       <c r="M12" t="n">
-        <v>269.3899127906121</v>
+        <v>269.3899127906122</v>
       </c>
       <c r="N12" t="n">
-        <v>276.5198621874764</v>
+        <v>276.5198621874765</v>
       </c>
       <c r="O12" t="n">
-        <v>252.9616513614737</v>
+        <v>252.9616513614738</v>
       </c>
       <c r="P12" t="n">
         <v>203.0240267107093</v>
       </c>
       <c r="Q12" t="n">
-        <v>135.7161852494024</v>
+        <v>135.7161852494025</v>
       </c>
       <c r="R12" t="n">
-        <v>66.01148702551338</v>
+        <v>66.01148702551339</v>
       </c>
       <c r="S12" t="n">
-        <v>19.74842099131455</v>
+        <v>19.74842099131456</v>
       </c>
       <c r="T12" t="n">
-        <v>4.285430670842522</v>
+        <v>4.285430670842523</v>
       </c>
       <c r="U12" t="n">
-        <v>0.06994718178741881</v>
+        <v>0.06994718178741882</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,16 +31910,16 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8913487864932271</v>
+        <v>0.8913487864932274</v>
       </c>
       <c r="H13" t="n">
-        <v>7.924901029003425</v>
+        <v>7.924901029003427</v>
       </c>
       <c r="I13" t="n">
         <v>26.80528896108724</v>
       </c>
       <c r="J13" t="n">
-        <v>63.01835920507116</v>
+        <v>63.01835920507117</v>
       </c>
       <c r="K13" t="n">
         <v>103.5585226489404</v>
@@ -31934,19 +31934,19 @@
         <v>136.4006738458228</v>
       </c>
       <c r="O13" t="n">
-        <v>125.9880993854245</v>
+        <v>125.9880993854246</v>
       </c>
       <c r="P13" t="n">
         <v>107.8045841409626</v>
       </c>
       <c r="Q13" t="n">
-        <v>74.63830611262833</v>
+        <v>74.63830611262834</v>
       </c>
       <c r="R13" t="n">
-        <v>40.07828270905</v>
+        <v>40.07828270905001</v>
       </c>
       <c r="S13" t="n">
-        <v>15.53377839734105</v>
+        <v>15.53377839734106</v>
       </c>
       <c r="T13" t="n">
         <v>3.80849026956197</v>
@@ -31992,34 +31992,34 @@
         <v>1.98710921794744</v>
       </c>
       <c r="H14" t="n">
-        <v>20.35048227830422</v>
+        <v>20.35048227830423</v>
       </c>
       <c r="I14" t="n">
-        <v>76.60802812491875</v>
+        <v>76.60802812491876</v>
       </c>
       <c r="J14" t="n">
         <v>168.6534109867667</v>
       </c>
       <c r="K14" t="n">
-        <v>252.7677441824818</v>
+        <v>252.7677441824819</v>
       </c>
       <c r="L14" t="n">
         <v>313.5807379112409</v>
       </c>
       <c r="M14" t="n">
-        <v>348.9189914659136</v>
+        <v>348.9189914659137</v>
       </c>
       <c r="N14" t="n">
-        <v>354.5648655314068</v>
+        <v>354.5648655314069</v>
       </c>
       <c r="O14" t="n">
         <v>334.805548245442</v>
       </c>
       <c r="P14" t="n">
-        <v>285.7487894273645</v>
+        <v>285.7487894273646</v>
       </c>
       <c r="Q14" t="n">
-        <v>214.5854405596217</v>
+        <v>214.5854405596218</v>
       </c>
       <c r="R14" t="n">
         <v>124.822749411891</v>
@@ -32028,10 +32028,10 @@
         <v>45.28125130397733</v>
       </c>
       <c r="T14" t="n">
-        <v>8.698570601564922</v>
+        <v>8.698570601564924</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1589687374357951</v>
+        <v>0.1589687374357952</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.063197163168765</v>
+        <v>1.063197163168766</v>
       </c>
       <c r="H15" t="n">
         <v>10.26824628639308</v>
@@ -32083,34 +32083,34 @@
         <v>171.6830261244932</v>
       </c>
       <c r="L15" t="n">
-        <v>230.8490156257444</v>
+        <v>230.8490156257445</v>
       </c>
       <c r="M15" t="n">
-        <v>269.3899127906121</v>
+        <v>269.3899127906122</v>
       </c>
       <c r="N15" t="n">
-        <v>276.5198621874764</v>
+        <v>276.5198621874765</v>
       </c>
       <c r="O15" t="n">
-        <v>252.9616513614737</v>
+        <v>252.9616513614738</v>
       </c>
       <c r="P15" t="n">
         <v>203.0240267107093</v>
       </c>
       <c r="Q15" t="n">
-        <v>135.7161852494024</v>
+        <v>135.7161852494025</v>
       </c>
       <c r="R15" t="n">
-        <v>66.01148702551338</v>
+        <v>66.01148702551339</v>
       </c>
       <c r="S15" t="n">
-        <v>19.74842099131455</v>
+        <v>19.74842099131456</v>
       </c>
       <c r="T15" t="n">
-        <v>4.285430670842522</v>
+        <v>4.285430670842523</v>
       </c>
       <c r="U15" t="n">
-        <v>0.06994718178741881</v>
+        <v>0.06994718178741882</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,16 +32147,16 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8913487864932271</v>
+        <v>0.8913487864932274</v>
       </c>
       <c r="H16" t="n">
-        <v>7.924901029003425</v>
+        <v>7.924901029003427</v>
       </c>
       <c r="I16" t="n">
         <v>26.80528896108724</v>
       </c>
       <c r="J16" t="n">
-        <v>63.01835920507116</v>
+        <v>63.01835920507117</v>
       </c>
       <c r="K16" t="n">
         <v>103.5585226489404</v>
@@ -32171,19 +32171,19 @@
         <v>136.4006738458228</v>
       </c>
       <c r="O16" t="n">
-        <v>125.9880993854245</v>
+        <v>125.9880993854246</v>
       </c>
       <c r="P16" t="n">
         <v>107.8045841409626</v>
       </c>
       <c r="Q16" t="n">
-        <v>74.63830611262833</v>
+        <v>74.63830611262834</v>
       </c>
       <c r="R16" t="n">
-        <v>40.07828270905</v>
+        <v>40.07828270905001</v>
       </c>
       <c r="S16" t="n">
-        <v>15.53377839734105</v>
+        <v>15.53377839734106</v>
       </c>
       <c r="T16" t="n">
         <v>3.80849026956197</v>
@@ -32232,7 +32232,7 @@
         <v>20.35048227830423</v>
       </c>
       <c r="I17" t="n">
-        <v>76.60802812491876</v>
+        <v>76.60802812491877</v>
       </c>
       <c r="J17" t="n">
         <v>168.6534109867667</v>
@@ -32241,16 +32241,16 @@
         <v>252.7677441824819</v>
       </c>
       <c r="L17" t="n">
-        <v>313.5807379112409</v>
+        <v>313.580737911241</v>
       </c>
       <c r="M17" t="n">
         <v>348.9189914659137</v>
       </c>
       <c r="N17" t="n">
-        <v>354.5648655314069</v>
+        <v>354.564865531407</v>
       </c>
       <c r="O17" t="n">
-        <v>334.805548245442</v>
+        <v>334.8055482454421</v>
       </c>
       <c r="P17" t="n">
         <v>285.7487894273646</v>
@@ -32262,7 +32262,7 @@
         <v>124.822749411891</v>
       </c>
       <c r="S17" t="n">
-        <v>45.28125130397733</v>
+        <v>45.28125130397734</v>
       </c>
       <c r="T17" t="n">
         <v>8.698570601564924</v>
@@ -32311,7 +32311,7 @@
         <v>10.26824628639308</v>
       </c>
       <c r="I18" t="n">
-        <v>36.6056918020825</v>
+        <v>36.60569180208251</v>
       </c>
       <c r="J18" t="n">
         <v>100.4488161921859</v>
@@ -32344,7 +32344,7 @@
         <v>19.74842099131456</v>
       </c>
       <c r="T18" t="n">
-        <v>4.285430670842523</v>
+        <v>4.285430670842524</v>
       </c>
       <c r="U18" t="n">
         <v>0.06994718178741882</v>
@@ -32384,16 +32384,16 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8913487864932274</v>
+        <v>0.8913487864932275</v>
       </c>
       <c r="H19" t="n">
         <v>7.924901029003427</v>
       </c>
       <c r="I19" t="n">
-        <v>26.80528896108724</v>
+        <v>26.80528896108725</v>
       </c>
       <c r="J19" t="n">
-        <v>63.01835920507117</v>
+        <v>63.01835920507118</v>
       </c>
       <c r="K19" t="n">
         <v>103.5585226489404</v>
@@ -32411,7 +32411,7 @@
         <v>125.9880993854246</v>
       </c>
       <c r="P19" t="n">
-        <v>107.8045841409626</v>
+        <v>107.8045841409627</v>
       </c>
       <c r="Q19" t="n">
         <v>74.63830611262834</v>
@@ -32423,10 +32423,10 @@
         <v>15.53377839734106</v>
       </c>
       <c r="T19" t="n">
-        <v>3.80849026956197</v>
+        <v>3.808490269561971</v>
       </c>
       <c r="U19" t="n">
-        <v>0.04861902471781245</v>
+        <v>0.04861902471781246</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32469,7 +32469,7 @@
         <v>20.35048227830423</v>
       </c>
       <c r="I20" t="n">
-        <v>76.60802812491876</v>
+        <v>76.60802812491877</v>
       </c>
       <c r="J20" t="n">
         <v>168.6534109867667</v>
@@ -32478,16 +32478,16 @@
         <v>252.7677441824819</v>
       </c>
       <c r="L20" t="n">
-        <v>313.5807379112409</v>
+        <v>313.580737911241</v>
       </c>
       <c r="M20" t="n">
         <v>348.9189914659137</v>
       </c>
       <c r="N20" t="n">
-        <v>354.5648655314069</v>
+        <v>354.564865531407</v>
       </c>
       <c r="O20" t="n">
-        <v>334.805548245442</v>
+        <v>334.8055482454421</v>
       </c>
       <c r="P20" t="n">
         <v>285.7487894273646</v>
@@ -32499,7 +32499,7 @@
         <v>124.822749411891</v>
       </c>
       <c r="S20" t="n">
-        <v>45.28125130397733</v>
+        <v>45.28125130397734</v>
       </c>
       <c r="T20" t="n">
         <v>8.698570601564924</v>
@@ -32548,7 +32548,7 @@
         <v>10.26824628639308</v>
       </c>
       <c r="I21" t="n">
-        <v>36.6056918020825</v>
+        <v>36.60569180208251</v>
       </c>
       <c r="J21" t="n">
         <v>100.4488161921859</v>
@@ -32581,7 +32581,7 @@
         <v>19.74842099131456</v>
       </c>
       <c r="T21" t="n">
-        <v>4.285430670842523</v>
+        <v>4.285430670842524</v>
       </c>
       <c r="U21" t="n">
         <v>0.06994718178741882</v>
@@ -32621,16 +32621,16 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8913487864932274</v>
+        <v>0.8913487864932275</v>
       </c>
       <c r="H22" t="n">
         <v>7.924901029003427</v>
       </c>
       <c r="I22" t="n">
-        <v>26.80528896108724</v>
+        <v>26.80528896108725</v>
       </c>
       <c r="J22" t="n">
-        <v>63.01835920507117</v>
+        <v>63.01835920507118</v>
       </c>
       <c r="K22" t="n">
         <v>103.5585226489404</v>
@@ -32648,7 +32648,7 @@
         <v>125.9880993854246</v>
       </c>
       <c r="P22" t="n">
-        <v>107.8045841409626</v>
+        <v>107.8045841409627</v>
       </c>
       <c r="Q22" t="n">
         <v>74.63830611262834</v>
@@ -32660,10 +32660,10 @@
         <v>15.53377839734106</v>
       </c>
       <c r="T22" t="n">
-        <v>3.80849026956197</v>
+        <v>3.808490269561971</v>
       </c>
       <c r="U22" t="n">
-        <v>0.04861902471781245</v>
+        <v>0.04861902471781246</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32706,7 +32706,7 @@
         <v>20.35048227830423</v>
       </c>
       <c r="I23" t="n">
-        <v>76.60802812491876</v>
+        <v>76.60802812491877</v>
       </c>
       <c r="J23" t="n">
         <v>168.6534109867667</v>
@@ -32715,16 +32715,16 @@
         <v>252.7677441824819</v>
       </c>
       <c r="L23" t="n">
-        <v>313.5807379112409</v>
+        <v>313.580737911241</v>
       </c>
       <c r="M23" t="n">
         <v>348.9189914659137</v>
       </c>
       <c r="N23" t="n">
-        <v>354.5648655314069</v>
+        <v>354.564865531407</v>
       </c>
       <c r="O23" t="n">
-        <v>334.805548245442</v>
+        <v>334.8055482454421</v>
       </c>
       <c r="P23" t="n">
         <v>285.7487894273646</v>
@@ -32736,7 +32736,7 @@
         <v>124.822749411891</v>
       </c>
       <c r="S23" t="n">
-        <v>45.28125130397733</v>
+        <v>45.28125130397734</v>
       </c>
       <c r="T23" t="n">
         <v>8.698570601564924</v>
@@ -32785,7 +32785,7 @@
         <v>10.26824628639308</v>
       </c>
       <c r="I24" t="n">
-        <v>36.6056918020825</v>
+        <v>36.60569180208251</v>
       </c>
       <c r="J24" t="n">
         <v>100.4488161921859</v>
@@ -32818,7 +32818,7 @@
         <v>19.74842099131456</v>
       </c>
       <c r="T24" t="n">
-        <v>4.285430670842523</v>
+        <v>4.285430670842524</v>
       </c>
       <c r="U24" t="n">
         <v>0.06994718178741882</v>
@@ -32858,16 +32858,16 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8913487864932274</v>
+        <v>0.8913487864932275</v>
       </c>
       <c r="H25" t="n">
         <v>7.924901029003427</v>
       </c>
       <c r="I25" t="n">
-        <v>26.80528896108724</v>
+        <v>26.80528896108725</v>
       </c>
       <c r="J25" t="n">
-        <v>63.01835920507117</v>
+        <v>63.01835920507118</v>
       </c>
       <c r="K25" t="n">
         <v>103.5585226489404</v>
@@ -32885,7 +32885,7 @@
         <v>125.9880993854246</v>
       </c>
       <c r="P25" t="n">
-        <v>107.8045841409626</v>
+        <v>107.8045841409627</v>
       </c>
       <c r="Q25" t="n">
         <v>74.63830611262834</v>
@@ -32897,10 +32897,10 @@
         <v>15.53377839734106</v>
       </c>
       <c r="T25" t="n">
-        <v>3.80849026956197</v>
+        <v>3.808490269561971</v>
       </c>
       <c r="U25" t="n">
-        <v>0.04861902471781245</v>
+        <v>0.04861902471781246</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32943,7 +32943,7 @@
         <v>20.35048227830423</v>
       </c>
       <c r="I26" t="n">
-        <v>76.60802812491876</v>
+        <v>76.60802812491877</v>
       </c>
       <c r="J26" t="n">
         <v>168.6534109867667</v>
@@ -32952,16 +32952,16 @@
         <v>252.7677441824819</v>
       </c>
       <c r="L26" t="n">
-        <v>313.5807379112409</v>
+        <v>313.580737911241</v>
       </c>
       <c r="M26" t="n">
         <v>348.9189914659137</v>
       </c>
       <c r="N26" t="n">
-        <v>354.5648655314069</v>
+        <v>354.564865531407</v>
       </c>
       <c r="O26" t="n">
-        <v>334.805548245442</v>
+        <v>334.8055482454421</v>
       </c>
       <c r="P26" t="n">
         <v>285.7487894273646</v>
@@ -32973,7 +32973,7 @@
         <v>124.822749411891</v>
       </c>
       <c r="S26" t="n">
-        <v>45.28125130397733</v>
+        <v>45.28125130397734</v>
       </c>
       <c r="T26" t="n">
         <v>8.698570601564924</v>
@@ -33022,7 +33022,7 @@
         <v>10.26824628639308</v>
       </c>
       <c r="I27" t="n">
-        <v>36.6056918020825</v>
+        <v>36.60569180208251</v>
       </c>
       <c r="J27" t="n">
         <v>100.4488161921859</v>
@@ -33055,7 +33055,7 @@
         <v>19.74842099131456</v>
       </c>
       <c r="T27" t="n">
-        <v>4.285430670842523</v>
+        <v>4.285430670842524</v>
       </c>
       <c r="U27" t="n">
         <v>0.06994718178741882</v>
@@ -33095,16 +33095,16 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8913487864932274</v>
+        <v>0.8913487864932275</v>
       </c>
       <c r="H28" t="n">
         <v>7.924901029003427</v>
       </c>
       <c r="I28" t="n">
-        <v>26.80528896108724</v>
+        <v>26.80528896108725</v>
       </c>
       <c r="J28" t="n">
-        <v>63.01835920507117</v>
+        <v>63.01835920507118</v>
       </c>
       <c r="K28" t="n">
         <v>103.5585226489404</v>
@@ -33122,7 +33122,7 @@
         <v>125.9880993854246</v>
       </c>
       <c r="P28" t="n">
-        <v>107.8045841409626</v>
+        <v>107.8045841409627</v>
       </c>
       <c r="Q28" t="n">
         <v>74.63830611262834</v>
@@ -33134,10 +33134,10 @@
         <v>15.53377839734106</v>
       </c>
       <c r="T28" t="n">
-        <v>3.80849026956197</v>
+        <v>3.808490269561971</v>
       </c>
       <c r="U28" t="n">
-        <v>0.04861902471781245</v>
+        <v>0.04861902471781246</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33180,7 +33180,7 @@
         <v>20.35048227830423</v>
       </c>
       <c r="I29" t="n">
-        <v>76.60802812491876</v>
+        <v>76.60802812491877</v>
       </c>
       <c r="J29" t="n">
         <v>168.6534109867667</v>
@@ -33189,16 +33189,16 @@
         <v>252.7677441824819</v>
       </c>
       <c r="L29" t="n">
-        <v>313.5807379112409</v>
+        <v>313.580737911241</v>
       </c>
       <c r="M29" t="n">
         <v>348.9189914659137</v>
       </c>
       <c r="N29" t="n">
-        <v>354.5648655314069</v>
+        <v>354.564865531407</v>
       </c>
       <c r="O29" t="n">
-        <v>334.805548245442</v>
+        <v>334.8055482454421</v>
       </c>
       <c r="P29" t="n">
         <v>285.7487894273646</v>
@@ -33210,7 +33210,7 @@
         <v>124.822749411891</v>
       </c>
       <c r="S29" t="n">
-        <v>45.28125130397733</v>
+        <v>45.28125130397734</v>
       </c>
       <c r="T29" t="n">
         <v>8.698570601564924</v>
@@ -33259,7 +33259,7 @@
         <v>10.26824628639308</v>
       </c>
       <c r="I30" t="n">
-        <v>36.6056918020825</v>
+        <v>36.60569180208251</v>
       </c>
       <c r="J30" t="n">
         <v>100.4488161921859</v>
@@ -33292,7 +33292,7 @@
         <v>19.74842099131456</v>
       </c>
       <c r="T30" t="n">
-        <v>4.285430670842523</v>
+        <v>4.285430670842524</v>
       </c>
       <c r="U30" t="n">
         <v>0.06994718178741882</v>
@@ -33332,16 +33332,16 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8913487864932274</v>
+        <v>0.8913487864932275</v>
       </c>
       <c r="H31" t="n">
         <v>7.924901029003427</v>
       </c>
       <c r="I31" t="n">
-        <v>26.80528896108724</v>
+        <v>26.80528896108725</v>
       </c>
       <c r="J31" t="n">
-        <v>63.01835920507117</v>
+        <v>63.01835920507118</v>
       </c>
       <c r="K31" t="n">
         <v>103.5585226489404</v>
@@ -33359,7 +33359,7 @@
         <v>125.9880993854246</v>
       </c>
       <c r="P31" t="n">
-        <v>107.8045841409626</v>
+        <v>107.8045841409627</v>
       </c>
       <c r="Q31" t="n">
         <v>74.63830611262834</v>
@@ -33371,10 +33371,10 @@
         <v>15.53377839734106</v>
       </c>
       <c r="T31" t="n">
-        <v>3.80849026956197</v>
+        <v>3.808490269561971</v>
       </c>
       <c r="U31" t="n">
-        <v>0.04861902471781245</v>
+        <v>0.04861902471781246</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33417,7 +33417,7 @@
         <v>20.35048227830423</v>
       </c>
       <c r="I32" t="n">
-        <v>76.60802812491876</v>
+        <v>76.60802812491877</v>
       </c>
       <c r="J32" t="n">
         <v>168.6534109867667</v>
@@ -33426,16 +33426,16 @@
         <v>252.7677441824819</v>
       </c>
       <c r="L32" t="n">
-        <v>313.5807379112409</v>
+        <v>313.580737911241</v>
       </c>
       <c r="M32" t="n">
         <v>348.9189914659137</v>
       </c>
       <c r="N32" t="n">
-        <v>354.5648655314069</v>
+        <v>354.564865531407</v>
       </c>
       <c r="O32" t="n">
-        <v>334.805548245442</v>
+        <v>334.8055482454421</v>
       </c>
       <c r="P32" t="n">
         <v>285.7487894273646</v>
@@ -33447,7 +33447,7 @@
         <v>124.822749411891</v>
       </c>
       <c r="S32" t="n">
-        <v>45.28125130397733</v>
+        <v>45.28125130397734</v>
       </c>
       <c r="T32" t="n">
         <v>8.698570601564924</v>
@@ -33496,7 +33496,7 @@
         <v>10.26824628639308</v>
       </c>
       <c r="I33" t="n">
-        <v>36.6056918020825</v>
+        <v>36.60569180208251</v>
       </c>
       <c r="J33" t="n">
         <v>100.4488161921859</v>
@@ -33529,7 +33529,7 @@
         <v>19.74842099131456</v>
       </c>
       <c r="T33" t="n">
-        <v>4.285430670842523</v>
+        <v>4.285430670842524</v>
       </c>
       <c r="U33" t="n">
         <v>0.06994718178741882</v>
@@ -33569,16 +33569,16 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8913487864932274</v>
+        <v>0.8913487864932275</v>
       </c>
       <c r="H34" t="n">
         <v>7.924901029003427</v>
       </c>
       <c r="I34" t="n">
-        <v>26.80528896108724</v>
+        <v>26.80528896108725</v>
       </c>
       <c r="J34" t="n">
-        <v>63.01835920507117</v>
+        <v>63.01835920507118</v>
       </c>
       <c r="K34" t="n">
         <v>103.5585226489404</v>
@@ -33596,7 +33596,7 @@
         <v>125.9880993854246</v>
       </c>
       <c r="P34" t="n">
-        <v>107.8045841409626</v>
+        <v>107.8045841409627</v>
       </c>
       <c r="Q34" t="n">
         <v>74.63830611262834</v>
@@ -33608,10 +33608,10 @@
         <v>15.53377839734106</v>
       </c>
       <c r="T34" t="n">
-        <v>3.80849026956197</v>
+        <v>3.808490269561971</v>
       </c>
       <c r="U34" t="n">
-        <v>0.04861902471781245</v>
+        <v>0.04861902471781246</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33651,46 +33651,46 @@
         <v>1.98710921794744</v>
       </c>
       <c r="H35" t="n">
-        <v>20.35048227830422</v>
+        <v>20.35048227830423</v>
       </c>
       <c r="I35" t="n">
-        <v>76.60802812491875</v>
+        <v>76.60802812491877</v>
       </c>
       <c r="J35" t="n">
         <v>168.6534109867667</v>
       </c>
       <c r="K35" t="n">
-        <v>252.7677441824818</v>
+        <v>252.7677441824819</v>
       </c>
       <c r="L35" t="n">
-        <v>313.5807379112409</v>
+        <v>313.580737911241</v>
       </c>
       <c r="M35" t="n">
-        <v>348.9189914659136</v>
+        <v>348.9189914659137</v>
       </c>
       <c r="N35" t="n">
-        <v>354.5648655314068</v>
+        <v>354.564865531407</v>
       </c>
       <c r="O35" t="n">
-        <v>334.805548245442</v>
+        <v>334.8055482454421</v>
       </c>
       <c r="P35" t="n">
-        <v>285.7487894273645</v>
+        <v>285.7487894273646</v>
       </c>
       <c r="Q35" t="n">
-        <v>214.5854405596217</v>
+        <v>214.5854405596218</v>
       </c>
       <c r="R35" t="n">
         <v>124.822749411891</v>
       </c>
       <c r="S35" t="n">
-        <v>45.28125130397733</v>
+        <v>45.28125130397734</v>
       </c>
       <c r="T35" t="n">
-        <v>8.698570601564922</v>
+        <v>8.698570601564924</v>
       </c>
       <c r="U35" t="n">
-        <v>0.1589687374357951</v>
+        <v>0.1589687374357952</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,13 +33727,13 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.063197163168765</v>
+        <v>1.063197163168766</v>
       </c>
       <c r="H36" t="n">
         <v>10.26824628639308</v>
       </c>
       <c r="I36" t="n">
-        <v>36.6056918020825</v>
+        <v>36.60569180208251</v>
       </c>
       <c r="J36" t="n">
         <v>100.4488161921859</v>
@@ -33742,34 +33742,34 @@
         <v>171.6830261244932</v>
       </c>
       <c r="L36" t="n">
-        <v>230.8490156257444</v>
+        <v>230.8490156257445</v>
       </c>
       <c r="M36" t="n">
-        <v>269.3899127906121</v>
+        <v>269.3899127906122</v>
       </c>
       <c r="N36" t="n">
-        <v>276.5198621874764</v>
+        <v>276.5198621874765</v>
       </c>
       <c r="O36" t="n">
-        <v>252.9616513614737</v>
+        <v>252.9616513614738</v>
       </c>
       <c r="P36" t="n">
         <v>203.0240267107093</v>
       </c>
       <c r="Q36" t="n">
-        <v>135.7161852494024</v>
+        <v>135.7161852494025</v>
       </c>
       <c r="R36" t="n">
-        <v>66.01148702551338</v>
+        <v>66.01148702551339</v>
       </c>
       <c r="S36" t="n">
-        <v>19.74842099131455</v>
+        <v>19.74842099131456</v>
       </c>
       <c r="T36" t="n">
-        <v>4.285430670842522</v>
+        <v>4.285430670842524</v>
       </c>
       <c r="U36" t="n">
-        <v>0.06994718178741881</v>
+        <v>0.06994718178741882</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,16 +33806,16 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8913487864932271</v>
+        <v>0.8913487864932275</v>
       </c>
       <c r="H37" t="n">
-        <v>7.924901029003425</v>
+        <v>7.924901029003427</v>
       </c>
       <c r="I37" t="n">
-        <v>26.80528896108724</v>
+        <v>26.80528896108725</v>
       </c>
       <c r="J37" t="n">
-        <v>63.01835920507116</v>
+        <v>63.01835920507118</v>
       </c>
       <c r="K37" t="n">
         <v>103.5585226489404</v>
@@ -33830,25 +33830,25 @@
         <v>136.4006738458228</v>
       </c>
       <c r="O37" t="n">
-        <v>125.9880993854245</v>
+        <v>125.9880993854246</v>
       </c>
       <c r="P37" t="n">
-        <v>107.8045841409626</v>
+        <v>107.8045841409627</v>
       </c>
       <c r="Q37" t="n">
-        <v>74.63830611262833</v>
+        <v>74.63830611262834</v>
       </c>
       <c r="R37" t="n">
-        <v>40.07828270905</v>
+        <v>40.07828270905001</v>
       </c>
       <c r="S37" t="n">
-        <v>15.53377839734105</v>
+        <v>15.53377839734106</v>
       </c>
       <c r="T37" t="n">
-        <v>3.80849026956197</v>
+        <v>3.808490269561971</v>
       </c>
       <c r="U37" t="n">
-        <v>0.04861902471781245</v>
+        <v>0.04861902471781246</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33888,34 +33888,34 @@
         <v>1.98710921794744</v>
       </c>
       <c r="H38" t="n">
-        <v>20.35048227830422</v>
+        <v>20.35048227830423</v>
       </c>
       <c r="I38" t="n">
-        <v>76.60802812491875</v>
+        <v>76.60802812491876</v>
       </c>
       <c r="J38" t="n">
         <v>168.6534109867667</v>
       </c>
       <c r="K38" t="n">
-        <v>252.7677441824818</v>
+        <v>252.7677441824819</v>
       </c>
       <c r="L38" t="n">
         <v>313.5807379112409</v>
       </c>
       <c r="M38" t="n">
-        <v>348.9189914659136</v>
+        <v>348.9189914659137</v>
       </c>
       <c r="N38" t="n">
-        <v>354.5648655314068</v>
+        <v>354.5648655314069</v>
       </c>
       <c r="O38" t="n">
         <v>334.805548245442</v>
       </c>
       <c r="P38" t="n">
-        <v>285.7487894273645</v>
+        <v>285.7487894273646</v>
       </c>
       <c r="Q38" t="n">
-        <v>214.5854405596217</v>
+        <v>214.5854405596218</v>
       </c>
       <c r="R38" t="n">
         <v>124.822749411891</v>
@@ -33924,10 +33924,10 @@
         <v>45.28125130397733</v>
       </c>
       <c r="T38" t="n">
-        <v>8.698570601564922</v>
+        <v>8.698570601564924</v>
       </c>
       <c r="U38" t="n">
-        <v>0.1589687374357951</v>
+        <v>0.1589687374357952</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.063197163168765</v>
+        <v>1.063197163168766</v>
       </c>
       <c r="H39" t="n">
         <v>10.26824628639308</v>
@@ -33979,34 +33979,34 @@
         <v>171.6830261244932</v>
       </c>
       <c r="L39" t="n">
-        <v>230.8490156257444</v>
+        <v>230.8490156257445</v>
       </c>
       <c r="M39" t="n">
-        <v>269.3899127906121</v>
+        <v>269.3899127906122</v>
       </c>
       <c r="N39" t="n">
-        <v>276.5198621874764</v>
+        <v>276.5198621874765</v>
       </c>
       <c r="O39" t="n">
-        <v>252.9616513614737</v>
+        <v>252.9616513614738</v>
       </c>
       <c r="P39" t="n">
         <v>203.0240267107093</v>
       </c>
       <c r="Q39" t="n">
-        <v>135.7161852494024</v>
+        <v>135.7161852494025</v>
       </c>
       <c r="R39" t="n">
-        <v>66.01148702551338</v>
+        <v>66.01148702551339</v>
       </c>
       <c r="S39" t="n">
-        <v>19.74842099131455</v>
+        <v>19.74842099131456</v>
       </c>
       <c r="T39" t="n">
-        <v>4.285430670842522</v>
+        <v>4.285430670842523</v>
       </c>
       <c r="U39" t="n">
-        <v>0.06994718178741881</v>
+        <v>0.06994718178741882</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,16 +34043,16 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8913487864932271</v>
+        <v>0.8913487864932274</v>
       </c>
       <c r="H40" t="n">
-        <v>7.924901029003425</v>
+        <v>7.924901029003427</v>
       </c>
       <c r="I40" t="n">
         <v>26.80528896108724</v>
       </c>
       <c r="J40" t="n">
-        <v>63.01835920507116</v>
+        <v>63.01835920507117</v>
       </c>
       <c r="K40" t="n">
         <v>103.5585226489404</v>
@@ -34067,19 +34067,19 @@
         <v>136.4006738458228</v>
       </c>
       <c r="O40" t="n">
-        <v>125.9880993854245</v>
+        <v>125.9880993854246</v>
       </c>
       <c r="P40" t="n">
         <v>107.8045841409626</v>
       </c>
       <c r="Q40" t="n">
-        <v>74.63830611262833</v>
+        <v>74.63830611262834</v>
       </c>
       <c r="R40" t="n">
-        <v>40.07828270905</v>
+        <v>40.07828270905001</v>
       </c>
       <c r="S40" t="n">
-        <v>15.53377839734105</v>
+        <v>15.53377839734106</v>
       </c>
       <c r="T40" t="n">
         <v>3.80849026956197</v>
@@ -34125,34 +34125,34 @@
         <v>1.98710921794744</v>
       </c>
       <c r="H41" t="n">
-        <v>20.35048227830422</v>
+        <v>20.35048227830423</v>
       </c>
       <c r="I41" t="n">
-        <v>76.60802812491875</v>
+        <v>76.60802812491876</v>
       </c>
       <c r="J41" t="n">
         <v>168.6534109867667</v>
       </c>
       <c r="K41" t="n">
-        <v>252.7677441824818</v>
+        <v>252.7677441824819</v>
       </c>
       <c r="L41" t="n">
         <v>313.5807379112409</v>
       </c>
       <c r="M41" t="n">
-        <v>348.9189914659136</v>
+        <v>348.9189914659137</v>
       </c>
       <c r="N41" t="n">
-        <v>354.5648655314068</v>
+        <v>354.5648655314069</v>
       </c>
       <c r="O41" t="n">
         <v>334.805548245442</v>
       </c>
       <c r="P41" t="n">
-        <v>285.7487894273645</v>
+        <v>285.7487894273646</v>
       </c>
       <c r="Q41" t="n">
-        <v>214.5854405596217</v>
+        <v>214.5854405596218</v>
       </c>
       <c r="R41" t="n">
         <v>124.822749411891</v>
@@ -34161,10 +34161,10 @@
         <v>45.28125130397733</v>
       </c>
       <c r="T41" t="n">
-        <v>8.698570601564922</v>
+        <v>8.698570601564924</v>
       </c>
       <c r="U41" t="n">
-        <v>0.1589687374357951</v>
+        <v>0.1589687374357952</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.063197163168765</v>
+        <v>1.063197163168766</v>
       </c>
       <c r="H42" t="n">
         <v>10.26824628639308</v>
@@ -34216,34 +34216,34 @@
         <v>171.6830261244932</v>
       </c>
       <c r="L42" t="n">
-        <v>230.8490156257444</v>
+        <v>230.8490156257445</v>
       </c>
       <c r="M42" t="n">
-        <v>269.3899127906121</v>
+        <v>269.3899127906122</v>
       </c>
       <c r="N42" t="n">
-        <v>276.5198621874764</v>
+        <v>276.5198621874765</v>
       </c>
       <c r="O42" t="n">
-        <v>252.9616513614737</v>
+        <v>252.9616513614738</v>
       </c>
       <c r="P42" t="n">
         <v>203.0240267107093</v>
       </c>
       <c r="Q42" t="n">
-        <v>135.7161852494024</v>
+        <v>135.7161852494025</v>
       </c>
       <c r="R42" t="n">
-        <v>66.01148702551338</v>
+        <v>66.01148702551339</v>
       </c>
       <c r="S42" t="n">
-        <v>19.74842099131455</v>
+        <v>19.74842099131456</v>
       </c>
       <c r="T42" t="n">
-        <v>4.285430670842522</v>
+        <v>4.285430670842523</v>
       </c>
       <c r="U42" t="n">
-        <v>0.06994718178741881</v>
+        <v>0.06994718178741882</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,16 +34280,16 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8913487864932271</v>
+        <v>0.8913487864932274</v>
       </c>
       <c r="H43" t="n">
-        <v>7.924901029003425</v>
+        <v>7.924901029003427</v>
       </c>
       <c r="I43" t="n">
         <v>26.80528896108724</v>
       </c>
       <c r="J43" t="n">
-        <v>63.01835920507116</v>
+        <v>63.01835920507117</v>
       </c>
       <c r="K43" t="n">
         <v>103.5585226489404</v>
@@ -34304,19 +34304,19 @@
         <v>136.4006738458228</v>
       </c>
       <c r="O43" t="n">
-        <v>125.9880993854245</v>
+        <v>125.9880993854246</v>
       </c>
       <c r="P43" t="n">
         <v>107.8045841409626</v>
       </c>
       <c r="Q43" t="n">
-        <v>74.63830611262833</v>
+        <v>74.63830611262834</v>
       </c>
       <c r="R43" t="n">
-        <v>40.07828270905</v>
+        <v>40.07828270905001</v>
       </c>
       <c r="S43" t="n">
-        <v>15.53377839734105</v>
+        <v>15.53377839734106</v>
       </c>
       <c r="T43" t="n">
         <v>3.80849026956197</v>
@@ -34362,34 +34362,34 @@
         <v>1.98710921794744</v>
       </c>
       <c r="H44" t="n">
-        <v>20.35048227830422</v>
+        <v>20.35048227830423</v>
       </c>
       <c r="I44" t="n">
-        <v>76.60802812491875</v>
+        <v>76.60802812491876</v>
       </c>
       <c r="J44" t="n">
         <v>168.6534109867667</v>
       </c>
       <c r="K44" t="n">
-        <v>252.7677441824818</v>
+        <v>252.7677441824819</v>
       </c>
       <c r="L44" t="n">
         <v>313.5807379112409</v>
       </c>
       <c r="M44" t="n">
-        <v>348.9189914659136</v>
+        <v>348.9189914659137</v>
       </c>
       <c r="N44" t="n">
-        <v>354.5648655314068</v>
+        <v>354.5648655314069</v>
       </c>
       <c r="O44" t="n">
         <v>334.805548245442</v>
       </c>
       <c r="P44" t="n">
-        <v>285.7487894273645</v>
+        <v>285.7487894273652</v>
       </c>
       <c r="Q44" t="n">
-        <v>214.5854405596217</v>
+        <v>214.5854405596218</v>
       </c>
       <c r="R44" t="n">
         <v>124.822749411891</v>
@@ -34398,10 +34398,10 @@
         <v>45.28125130397733</v>
       </c>
       <c r="T44" t="n">
-        <v>8.698570601564922</v>
+        <v>8.698570601564924</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1589687374357951</v>
+        <v>0.1589687374357952</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.063197163168765</v>
+        <v>1.063197163168766</v>
       </c>
       <c r="H45" t="n">
         <v>10.26824628639308</v>
@@ -34453,34 +34453,34 @@
         <v>171.6830261244932</v>
       </c>
       <c r="L45" t="n">
-        <v>230.8490156257444</v>
+        <v>230.8490156257445</v>
       </c>
       <c r="M45" t="n">
-        <v>269.3899127906121</v>
+        <v>269.3899127906122</v>
       </c>
       <c r="N45" t="n">
-        <v>276.5198621874764</v>
+        <v>276.5198621874765</v>
       </c>
       <c r="O45" t="n">
-        <v>252.9616513614737</v>
+        <v>252.9616513614738</v>
       </c>
       <c r="P45" t="n">
         <v>203.0240267107093</v>
       </c>
       <c r="Q45" t="n">
-        <v>135.7161852494024</v>
+        <v>135.7161852494025</v>
       </c>
       <c r="R45" t="n">
-        <v>66.01148702551338</v>
+        <v>66.01148702551339</v>
       </c>
       <c r="S45" t="n">
-        <v>19.74842099131455</v>
+        <v>19.74842099131456</v>
       </c>
       <c r="T45" t="n">
-        <v>4.285430670842522</v>
+        <v>4.285430670842523</v>
       </c>
       <c r="U45" t="n">
-        <v>0.06994718178741881</v>
+        <v>0.06994718178741882</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,16 +34517,16 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.8913487864932271</v>
+        <v>0.8913487864932274</v>
       </c>
       <c r="H46" t="n">
-        <v>7.924901029003425</v>
+        <v>7.924901029003427</v>
       </c>
       <c r="I46" t="n">
         <v>26.80528896108724</v>
       </c>
       <c r="J46" t="n">
-        <v>63.01835920507116</v>
+        <v>63.01835920507117</v>
       </c>
       <c r="K46" t="n">
         <v>103.5585226489404</v>
@@ -34541,19 +34541,19 @@
         <v>136.4006738458228</v>
       </c>
       <c r="O46" t="n">
-        <v>125.9880993854245</v>
+        <v>125.9880993854246</v>
       </c>
       <c r="P46" t="n">
         <v>107.8045841409626</v>
       </c>
       <c r="Q46" t="n">
-        <v>74.63830611262833</v>
+        <v>74.63830611262834</v>
       </c>
       <c r="R46" t="n">
-        <v>40.07828270905</v>
+        <v>40.07828270905001</v>
       </c>
       <c r="S46" t="n">
-        <v>15.53377839734105</v>
+        <v>15.53377839734106</v>
       </c>
       <c r="T46" t="n">
         <v>3.80849026956197</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>42.06012558095524</v>
+        <v>42.06012558095526</v>
       </c>
       <c r="J11" t="n">
-        <v>139.2334515011801</v>
+        <v>139.2334515011802</v>
       </c>
       <c r="K11" t="n">
         <v>217.0031433876725</v>
       </c>
       <c r="L11" t="n">
-        <v>275.2686954786179</v>
+        <v>275.268695478618</v>
       </c>
       <c r="M11" t="n">
         <v>311.4877285664818</v>
       </c>
       <c r="N11" t="n">
-        <v>317.2852426969608</v>
+        <v>317.2852426969609</v>
       </c>
       <c r="O11" t="n">
         <v>297.4145888894179</v>
       </c>
       <c r="P11" t="n">
-        <v>248.1734276171332</v>
+        <v>248.1734276171333</v>
       </c>
       <c r="Q11" t="n">
-        <v>178.4607659550237</v>
+        <v>178.4607659550238</v>
       </c>
       <c r="R11" t="n">
-        <v>89.79009951709449</v>
+        <v>89.79009951709452</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,7 +35488,7 @@
         <v>20.4333050520825</v>
       </c>
       <c r="J12" t="n">
-        <v>79.83770185885254</v>
+        <v>344.9308271163657</v>
       </c>
       <c r="K12" t="n">
         <v>149.2837922911598</v>
@@ -35500,19 +35500,19 @@
         <v>246.2931322782842</v>
       </c>
       <c r="N12" t="n">
-        <v>255.1768339739347</v>
+        <v>255.1768339739348</v>
       </c>
       <c r="O12" t="n">
-        <v>494.8828868967651</v>
+        <v>229.7897616392516</v>
       </c>
       <c r="P12" t="n">
-        <v>181.2531855058806</v>
+        <v>181.2531855058807</v>
       </c>
       <c r="Q12" t="n">
-        <v>112.9691469604239</v>
+        <v>112.969146960424</v>
       </c>
       <c r="R12" t="n">
-        <v>42.33856763136923</v>
+        <v>42.33856763136924</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35576,19 +35576,19 @@
         <v>110.6004951434828</v>
       </c>
       <c r="M13" t="n">
-        <v>534.4427286986307</v>
+        <v>117.1475339767207</v>
       </c>
       <c r="N13" t="n">
-        <v>517.7052302862629</v>
+        <v>498.6002545424371</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6190762683462</v>
+        <v>485.006411183165</v>
       </c>
       <c r="P13" t="n">
-        <v>85.42378348297615</v>
+        <v>401.3391416378323</v>
       </c>
       <c r="Q13" t="n">
-        <v>202.9212659517818</v>
+        <v>50.0187433478434</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>42.06012558095524</v>
+        <v>42.06012558095526</v>
       </c>
       <c r="J14" t="n">
-        <v>139.2334515011801</v>
+        <v>139.2334515011802</v>
       </c>
       <c r="K14" t="n">
         <v>217.0031433876725</v>
       </c>
       <c r="L14" t="n">
-        <v>275.2686954786179</v>
+        <v>275.268695478618</v>
       </c>
       <c r="M14" t="n">
         <v>311.4877285664818</v>
       </c>
       <c r="N14" t="n">
-        <v>317.2852426969608</v>
+        <v>317.2852426969609</v>
       </c>
       <c r="O14" t="n">
         <v>297.4145888894179</v>
       </c>
       <c r="P14" t="n">
-        <v>248.1734276171332</v>
+        <v>248.1734276171333</v>
       </c>
       <c r="Q14" t="n">
-        <v>178.4607659550237</v>
+        <v>178.4607659550238</v>
       </c>
       <c r="R14" t="n">
-        <v>89.79009951709449</v>
+        <v>89.79009951709452</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,7 +35725,7 @@
         <v>44.12755337977123</v>
       </c>
       <c r="J15" t="n">
-        <v>79.83770185885254</v>
+        <v>214.7158714301862</v>
       </c>
       <c r="K15" t="n">
         <v>149.2837922911598</v>
@@ -35737,19 +35737,19 @@
         <v>246.2931322782842</v>
       </c>
       <c r="N15" t="n">
-        <v>255.1768339739347</v>
+        <v>255.1768339739348</v>
       </c>
       <c r="O15" t="n">
-        <v>229.7897616392515</v>
+        <v>229.7897616392516</v>
       </c>
       <c r="P15" t="n">
-        <v>422.6520624357053</v>
+        <v>181.2531855058807</v>
       </c>
       <c r="Q15" t="n">
-        <v>112.9691469604239</v>
+        <v>112.969146960424</v>
       </c>
       <c r="R15" t="n">
-        <v>42.33856763136923</v>
+        <v>148.85927498986</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,25 +35804,25 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>121.0904079163419</v>
+        <v>97.48348624801041</v>
       </c>
       <c r="K16" t="n">
-        <v>332.3742814427153</v>
+        <v>82.59386819622839</v>
       </c>
       <c r="L16" t="n">
         <v>110.6004951434828</v>
       </c>
       <c r="M16" t="n">
-        <v>117.1475339767207</v>
+        <v>534.442728698631</v>
       </c>
       <c r="N16" t="n">
-        <v>517.7052302862629</v>
+        <v>517.705230286263</v>
       </c>
       <c r="O16" t="n">
-        <v>312.9989128354004</v>
+        <v>485.006411183165</v>
       </c>
       <c r="P16" t="n">
-        <v>401.3391416378323</v>
+        <v>85.42378348297616</v>
       </c>
       <c r="Q16" t="n">
         <v>202.9212659517818</v>
@@ -35880,25 +35880,25 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>42.06012558095526</v>
+        <v>42.06012558095527</v>
       </c>
       <c r="J17" t="n">
         <v>139.2334515011802</v>
       </c>
       <c r="K17" t="n">
-        <v>217.0031433876725</v>
+        <v>217.0031433876726</v>
       </c>
       <c r="L17" t="n">
         <v>275.268695478618</v>
       </c>
       <c r="M17" t="n">
-        <v>311.4877285664818</v>
+        <v>311.4877285664819</v>
       </c>
       <c r="N17" t="n">
         <v>317.2852426969609</v>
       </c>
       <c r="O17" t="n">
-        <v>297.4145888894179</v>
+        <v>297.414588889418</v>
       </c>
       <c r="P17" t="n">
         <v>248.1734276171333</v>
@@ -35907,7 +35907,7 @@
         <v>178.4607659550238</v>
       </c>
       <c r="R17" t="n">
-        <v>89.79009951709452</v>
+        <v>89.79009951709455</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,22 +35959,22 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>44.12755337977123</v>
+        <v>20.43330505208251</v>
       </c>
       <c r="J18" t="n">
-        <v>79.83770185885255</v>
+        <v>344.9308271163654</v>
       </c>
       <c r="K18" t="n">
-        <v>390.6826692209842</v>
+        <v>149.2837922911599</v>
       </c>
       <c r="L18" t="n">
-        <v>208.3339289115149</v>
+        <v>208.333928911515</v>
       </c>
       <c r="M18" t="n">
-        <v>246.2931322782842</v>
+        <v>246.2931322782843</v>
       </c>
       <c r="N18" t="n">
-        <v>255.1768339739348</v>
+        <v>255.1768339739349</v>
       </c>
       <c r="O18" t="n">
         <v>229.7897616392516</v>
@@ -36041,25 +36041,25 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>121.0904079163419</v>
+        <v>42.38160322116931</v>
       </c>
       <c r="K19" t="n">
-        <v>82.59386819622839</v>
+        <v>82.5938681962284</v>
       </c>
       <c r="L19" t="n">
-        <v>490.7912967507202</v>
+        <v>318.6049007742622</v>
       </c>
       <c r="M19" t="n">
-        <v>534.4427286986307</v>
+        <v>534.442728698631</v>
       </c>
       <c r="N19" t="n">
-        <v>266.8100296146317</v>
+        <v>517.705230286263</v>
       </c>
       <c r="O19" t="n">
         <v>485.006411183165</v>
       </c>
       <c r="P19" t="n">
-        <v>85.42378348297616</v>
+        <v>85.42378348297618</v>
       </c>
       <c r="Q19" t="n">
         <v>50.0187433478434</v>
@@ -36117,25 +36117,25 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>42.06012558095526</v>
+        <v>42.06012558095527</v>
       </c>
       <c r="J20" t="n">
         <v>139.2334515011802</v>
       </c>
       <c r="K20" t="n">
-        <v>217.0031433876725</v>
+        <v>217.0031433876726</v>
       </c>
       <c r="L20" t="n">
         <v>275.268695478618</v>
       </c>
       <c r="M20" t="n">
-        <v>311.4877285664818</v>
+        <v>311.4877285664819</v>
       </c>
       <c r="N20" t="n">
         <v>317.2852426969609</v>
       </c>
       <c r="O20" t="n">
-        <v>297.4145888894179</v>
+        <v>297.414588889418</v>
       </c>
       <c r="P20" t="n">
         <v>248.1734276171333</v>
@@ -36144,7 +36144,7 @@
         <v>178.4607659550238</v>
       </c>
       <c r="R20" t="n">
-        <v>89.79009951709452</v>
+        <v>89.79009951709455</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,22 +36196,22 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>20.4333050520825</v>
+        <v>44.12755337977124</v>
       </c>
       <c r="J21" t="n">
-        <v>79.83770185885255</v>
+        <v>214.715871430186</v>
       </c>
       <c r="K21" t="n">
-        <v>149.2837922911598</v>
+        <v>149.2837922911599</v>
       </c>
       <c r="L21" t="n">
-        <v>208.3339289115149</v>
+        <v>208.333928911515</v>
       </c>
       <c r="M21" t="n">
-        <v>511.3862575357974</v>
+        <v>246.2931322782843</v>
       </c>
       <c r="N21" t="n">
-        <v>255.1768339739348</v>
+        <v>255.1768339739349</v>
       </c>
       <c r="O21" t="n">
         <v>229.7897616392516</v>
@@ -36223,7 +36223,7 @@
         <v>112.969146960424</v>
       </c>
       <c r="R21" t="n">
-        <v>42.33856763136924</v>
+        <v>148.85927498986</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36287,19 +36287,19 @@
         <v>490.7912967507202</v>
       </c>
       <c r="M22" t="n">
-        <v>534.442728698631</v>
+        <v>501.4227133378629</v>
       </c>
       <c r="N22" t="n">
-        <v>245.6445930603721</v>
+        <v>115.6517728702224</v>
       </c>
       <c r="O22" t="n">
         <v>103.4889118870001</v>
       </c>
       <c r="P22" t="n">
-        <v>85.42378348297616</v>
+        <v>401.3391416378324</v>
       </c>
       <c r="Q22" t="n">
-        <v>202.9212659517818</v>
+        <v>50.0187433478434</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36354,31 +36354,31 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>42.06012558095526</v>
+        <v>42.06012558095527</v>
       </c>
       <c r="J23" t="n">
-        <v>345.6585028723068</v>
+        <v>534.9195310038328</v>
       </c>
       <c r="K23" t="n">
-        <v>217.0031433876725</v>
+        <v>524.5591934003226</v>
       </c>
       <c r="L23" t="n">
         <v>275.268695478618</v>
       </c>
       <c r="M23" t="n">
-        <v>311.4877285664818</v>
+        <v>311.4877285664819</v>
       </c>
       <c r="N23" t="n">
         <v>317.2852426969609</v>
       </c>
       <c r="O23" t="n">
-        <v>297.4145888894179</v>
+        <v>297.414588889418</v>
       </c>
       <c r="P23" t="n">
         <v>248.1734276171333</v>
       </c>
       <c r="Q23" t="n">
-        <v>675.2778440992007</v>
+        <v>178.4607659550238</v>
       </c>
       <c r="R23" t="n">
         <v>243.5665220198734</v>
@@ -36433,22 +36433,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>20.4333050520825</v>
+        <v>44.12755337977124</v>
       </c>
       <c r="J24" t="n">
-        <v>79.83770185885255</v>
+        <v>214.7158714301859</v>
       </c>
       <c r="K24" t="n">
-        <v>149.2837922911598</v>
+        <v>149.2837922911599</v>
       </c>
       <c r="L24" t="n">
-        <v>208.3339289115149</v>
+        <v>208.333928911515</v>
       </c>
       <c r="M24" t="n">
-        <v>404.8655501773065</v>
+        <v>246.2931322782843</v>
       </c>
       <c r="N24" t="n">
-        <v>255.1768339739348</v>
+        <v>255.1768339739349</v>
       </c>
       <c r="O24" t="n">
         <v>229.7897616392516</v>
@@ -36524,19 +36524,19 @@
         <v>490.7912967507202</v>
       </c>
       <c r="M25" t="n">
-        <v>534.8601405048234</v>
+        <v>534.8601405048236</v>
       </c>
       <c r="N25" t="n">
         <v>517.705230286263</v>
       </c>
       <c r="O25" t="n">
-        <v>485.006411183165</v>
+        <v>372.1140567181425</v>
       </c>
       <c r="P25" t="n">
-        <v>401.3391416378323</v>
+        <v>401.3391416378324</v>
       </c>
       <c r="Q25" t="n">
-        <v>90.02891148676062</v>
+        <v>202.9212659517818</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>42.06012558095526</v>
+        <v>42.06012558095527</v>
       </c>
       <c r="J26" t="n">
-        <v>139.2334515011802</v>
+        <v>534.9195310038328</v>
       </c>
       <c r="K26" t="n">
-        <v>217.0031433876725</v>
+        <v>678.3356159031021</v>
       </c>
       <c r="L26" t="n">
         <v>275.268695478618</v>
       </c>
       <c r="M26" t="n">
-        <v>311.4877285664818</v>
+        <v>311.4877285664819</v>
       </c>
       <c r="N26" t="n">
         <v>317.2852426969609</v>
       </c>
       <c r="O26" t="n">
-        <v>297.4145888894179</v>
+        <v>297.414588889418</v>
       </c>
       <c r="P26" t="n">
-        <v>608.3749014910395</v>
+        <v>248.1734276171333</v>
       </c>
       <c r="Q26" t="n">
-        <v>675.2778440992007</v>
+        <v>178.4607659550238</v>
       </c>
       <c r="R26" t="n">
-        <v>89.79009951709452</v>
+        <v>89.79009951709455</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,22 +36670,22 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>20.4333050520825</v>
+        <v>44.12755337977124</v>
       </c>
       <c r="J27" t="n">
-        <v>79.83770185885255</v>
+        <v>214.7158714301859</v>
       </c>
       <c r="K27" t="n">
-        <v>307.8562101901821</v>
+        <v>149.2837922911599</v>
       </c>
       <c r="L27" t="n">
-        <v>208.3339289115149</v>
+        <v>208.333928911515</v>
       </c>
       <c r="M27" t="n">
-        <v>246.2931322782842</v>
+        <v>246.2931322782843</v>
       </c>
       <c r="N27" t="n">
-        <v>255.1768339739348</v>
+        <v>255.1768339739349</v>
       </c>
       <c r="O27" t="n">
         <v>229.7897616392516</v>
@@ -36752,25 +36752,25 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>42.3816032211693</v>
+        <v>121.0904079163419</v>
       </c>
       <c r="K28" t="n">
         <v>332.3742814427153</v>
       </c>
       <c r="L28" t="n">
-        <v>490.7912967507202</v>
+        <v>377.8989422856981</v>
       </c>
       <c r="M28" t="n">
-        <v>534.8601405048234</v>
+        <v>534.8601405048236</v>
       </c>
       <c r="N28" t="n">
-        <v>483.5216805164147</v>
+        <v>517.705230286263</v>
       </c>
       <c r="O28" t="n">
         <v>485.006411183165</v>
       </c>
       <c r="P28" t="n">
-        <v>401.3391416378323</v>
+        <v>401.3391416378324</v>
       </c>
       <c r="Q28" t="n">
         <v>202.9212659517818</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>42.06012558095526</v>
+        <v>42.06012558095527</v>
       </c>
       <c r="J29" t="n">
-        <v>139.2334515011802</v>
+        <v>534.9195310038328</v>
       </c>
       <c r="K29" t="n">
-        <v>217.0031433876725</v>
+        <v>217.0031433876726</v>
       </c>
       <c r="L29" t="n">
-        <v>750.8836385195243</v>
+        <v>275.268695478618</v>
       </c>
       <c r="M29" t="n">
-        <v>692.8913375436586</v>
+        <v>311.4877285664819</v>
       </c>
       <c r="N29" t="n">
         <v>317.2852426969609</v>
       </c>
       <c r="O29" t="n">
-        <v>297.4145888894179</v>
+        <v>297.414588889418</v>
       </c>
       <c r="P29" t="n">
-        <v>248.1734276171333</v>
+        <v>555.7294776297838</v>
       </c>
       <c r="Q29" t="n">
         <v>178.4607659550238</v>
       </c>
       <c r="R29" t="n">
-        <v>89.79009951709452</v>
+        <v>243.5665220198734</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,22 +36907,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>20.4333050520825</v>
+        <v>44.12755337977124</v>
       </c>
       <c r="J30" t="n">
-        <v>344.9308271163655</v>
+        <v>214.7158714301859</v>
       </c>
       <c r="K30" t="n">
-        <v>149.2837922911598</v>
+        <v>149.2837922911599</v>
       </c>
       <c r="L30" t="n">
-        <v>208.3339289115149</v>
+        <v>208.333928911515</v>
       </c>
       <c r="M30" t="n">
-        <v>246.2931322782842</v>
+        <v>246.2931322782843</v>
       </c>
       <c r="N30" t="n">
-        <v>255.1768339739348</v>
+        <v>255.1768339739349</v>
       </c>
       <c r="O30" t="n">
         <v>229.7897616392516</v>
@@ -36934,7 +36934,7 @@
         <v>112.969146960424</v>
       </c>
       <c r="R30" t="n">
-        <v>42.33856763136924</v>
+        <v>148.85927498986</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36998,16 +36998,16 @@
         <v>490.7912967507202</v>
       </c>
       <c r="M31" t="n">
-        <v>534.8601405048234</v>
+        <v>421.9677860398015</v>
       </c>
       <c r="N31" t="n">
-        <v>404.8128758212422</v>
+        <v>517.705230286263</v>
       </c>
       <c r="O31" t="n">
         <v>485.006411183165</v>
       </c>
       <c r="P31" t="n">
-        <v>401.3391416378323</v>
+        <v>401.3391416378324</v>
       </c>
       <c r="Q31" t="n">
         <v>202.9212659517818</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>42.06012558095526</v>
+        <v>42.06012558095527</v>
       </c>
       <c r="J32" t="n">
-        <v>139.2334515011802</v>
+        <v>534.9195310038328</v>
       </c>
       <c r="K32" t="n">
-        <v>217.0031433876725</v>
+        <v>217.0031433876726</v>
       </c>
       <c r="L32" t="n">
         <v>275.268695478618</v>
       </c>
       <c r="M32" t="n">
-        <v>311.4877285664818</v>
+        <v>311.4877285664819</v>
       </c>
       <c r="N32" t="n">
         <v>317.2852426969609</v>
       </c>
       <c r="O32" t="n">
-        <v>297.4145888894179</v>
+        <v>297.414588889418</v>
       </c>
       <c r="P32" t="n">
-        <v>750.8836385195242</v>
+        <v>709.5059001325628</v>
       </c>
       <c r="Q32" t="n">
-        <v>532.7691070707159</v>
+        <v>178.4607659550238</v>
       </c>
       <c r="R32" t="n">
-        <v>89.79009951709452</v>
+        <v>89.79009951709455</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,22 +37144,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>20.4333050520825</v>
+        <v>44.12755337977124</v>
       </c>
       <c r="J33" t="n">
-        <v>79.83770185885255</v>
+        <v>214.7158714301859</v>
       </c>
       <c r="K33" t="n">
-        <v>149.2837922911598</v>
+        <v>149.2837922911599</v>
       </c>
       <c r="L33" t="n">
-        <v>366.9063468105372</v>
+        <v>208.333928911515</v>
       </c>
       <c r="M33" t="n">
-        <v>246.2931322782842</v>
+        <v>246.2931322782843</v>
       </c>
       <c r="N33" t="n">
-        <v>255.1768339739348</v>
+        <v>255.1768339739349</v>
       </c>
       <c r="O33" t="n">
         <v>229.7897616392516</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>42.3816032211693</v>
+        <v>121.0904079163419</v>
       </c>
       <c r="K34" t="n">
         <v>332.3742814427153</v>
@@ -37235,7 +37235,7 @@
         <v>490.7912967507202</v>
       </c>
       <c r="M34" t="n">
-        <v>500.6765907349741</v>
+        <v>534.8601405048236</v>
       </c>
       <c r="N34" t="n">
         <v>517.705230286263</v>
@@ -37244,7 +37244,7 @@
         <v>485.006411183165</v>
       </c>
       <c r="P34" t="n">
-        <v>401.3391416378323</v>
+        <v>288.4467871728106</v>
       </c>
       <c r="Q34" t="n">
         <v>202.9212659517818</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>42.06012558095524</v>
+        <v>42.06012558095527</v>
       </c>
       <c r="J35" t="n">
-        <v>139.2334515011801</v>
+        <v>139.2334515011802</v>
       </c>
       <c r="K35" t="n">
-        <v>217.0031433876725</v>
+        <v>217.0031433876726</v>
       </c>
       <c r="L35" t="n">
-        <v>275.2686954786179</v>
+        <v>275.268695478618</v>
       </c>
       <c r="M35" t="n">
-        <v>311.4877285664818</v>
+        <v>311.4877285664819</v>
       </c>
       <c r="N35" t="n">
-        <v>317.2852426969608</v>
+        <v>317.2852426969609</v>
       </c>
       <c r="O35" t="n">
-        <v>297.4145888894179</v>
+        <v>297.414588889418</v>
       </c>
       <c r="P35" t="n">
-        <v>248.1734276171332</v>
+        <v>248.1734276171333</v>
       </c>
       <c r="Q35" t="n">
-        <v>178.4607659550237</v>
+        <v>178.4607659550238</v>
       </c>
       <c r="R35" t="n">
-        <v>89.79009951709449</v>
+        <v>89.79009951709455</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>20.4333050520825</v>
+        <v>44.12755337977124</v>
       </c>
       <c r="J36" t="n">
-        <v>344.9308271163659</v>
+        <v>214.715871430186</v>
       </c>
       <c r="K36" t="n">
-        <v>149.2837922911598</v>
+        <v>149.2837922911599</v>
       </c>
       <c r="L36" t="n">
-        <v>208.3339289115149</v>
+        <v>208.333928911515</v>
       </c>
       <c r="M36" t="n">
-        <v>246.2931322782842</v>
+        <v>246.2931322782843</v>
       </c>
       <c r="N36" t="n">
-        <v>255.1768339739347</v>
+        <v>255.1768339739349</v>
       </c>
       <c r="O36" t="n">
-        <v>229.7897616392515</v>
+        <v>229.7897616392516</v>
       </c>
       <c r="P36" t="n">
-        <v>181.2531855058806</v>
+        <v>181.2531855058807</v>
       </c>
       <c r="Q36" t="n">
-        <v>112.9691469604239</v>
+        <v>112.969146960424</v>
       </c>
       <c r="R36" t="n">
-        <v>42.33856763136923</v>
+        <v>148.85927498986</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>121.0904079163419</v>
+        <v>42.38160322116931</v>
       </c>
       <c r="K37" t="n">
-        <v>332.3742814427153</v>
+        <v>82.5938681962284</v>
       </c>
       <c r="L37" t="n">
-        <v>304.8687587860135</v>
+        <v>110.6004951434828</v>
       </c>
       <c r="M37" t="n">
-        <v>534.4427286986307</v>
+        <v>426.5317761745539</v>
       </c>
       <c r="N37" t="n">
-        <v>115.6517728702224</v>
+        <v>517.705230286263</v>
       </c>
       <c r="O37" t="n">
-        <v>103.4889118870001</v>
+        <v>485.006411183165</v>
       </c>
       <c r="P37" t="n">
-        <v>401.3391416378323</v>
+        <v>401.3391416378324</v>
       </c>
       <c r="Q37" t="n">
-        <v>202.9212659517818</v>
+        <v>50.0187433478434</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>42.06012558095524</v>
+        <v>42.06012558095526</v>
       </c>
       <c r="J38" t="n">
-        <v>139.2334515011801</v>
+        <v>139.2334515011802</v>
       </c>
       <c r="K38" t="n">
         <v>217.0031433876725</v>
       </c>
       <c r="L38" t="n">
-        <v>275.2686954786179</v>
+        <v>275.268695478618</v>
       </c>
       <c r="M38" t="n">
         <v>311.4877285664818</v>
       </c>
       <c r="N38" t="n">
-        <v>317.2852426969608</v>
+        <v>317.2852426969609</v>
       </c>
       <c r="O38" t="n">
-        <v>297.4145888894179</v>
+        <v>297.4145888894187</v>
       </c>
       <c r="P38" t="n">
-        <v>248.1734276171332</v>
+        <v>248.1734276171333</v>
       </c>
       <c r="Q38" t="n">
-        <v>178.4607659550237</v>
+        <v>178.4607659550238</v>
       </c>
       <c r="R38" t="n">
-        <v>89.79009951709449</v>
+        <v>89.79009951709452</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>20.4333050520825</v>
+        <v>44.12755337977123</v>
       </c>
       <c r="J39" t="n">
-        <v>79.83770185885254</v>
+        <v>79.83770185885255</v>
       </c>
       <c r="K39" t="n">
         <v>149.2837922911598</v>
       </c>
       <c r="L39" t="n">
-        <v>473.4270541690283</v>
+        <v>208.3339289115149</v>
       </c>
       <c r="M39" t="n">
         <v>246.2931322782842</v>
       </c>
       <c r="N39" t="n">
-        <v>255.1768339739347</v>
+        <v>255.1768339739348</v>
       </c>
       <c r="O39" t="n">
-        <v>229.7897616392515</v>
+        <v>229.7897616392516</v>
       </c>
       <c r="P39" t="n">
-        <v>181.2531855058806</v>
+        <v>181.2531855058807</v>
       </c>
       <c r="Q39" t="n">
-        <v>112.9691469604239</v>
+        <v>247.8473165317577</v>
       </c>
       <c r="R39" t="n">
-        <v>42.33856763136923</v>
+        <v>148.85927498986</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>121.0904079163419</v>
+        <v>42.3816032211693</v>
       </c>
       <c r="K40" t="n">
         <v>332.3742814427153</v>
       </c>
       <c r="L40" t="n">
-        <v>110.6004951434828</v>
+        <v>490.7912967507202</v>
       </c>
       <c r="M40" t="n">
-        <v>534.4427286986307</v>
+        <v>534.442728698631</v>
       </c>
       <c r="N40" t="n">
-        <v>462.8225591166913</v>
+        <v>477.255920359483</v>
       </c>
       <c r="O40" t="n">
         <v>103.4889118870001</v>
       </c>
       <c r="P40" t="n">
-        <v>401.3391416378323</v>
+        <v>85.42378348297616</v>
       </c>
       <c r="Q40" t="n">
-        <v>50.01874334784338</v>
+        <v>50.0187433478434</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>42.06012558095524</v>
+        <v>42.06012558095526</v>
       </c>
       <c r="J41" t="n">
-        <v>139.2334515011801</v>
+        <v>139.2334515011802</v>
       </c>
       <c r="K41" t="n">
         <v>217.0031433876725</v>
       </c>
       <c r="L41" t="n">
-        <v>275.2686954786179</v>
+        <v>275.268695478618</v>
       </c>
       <c r="M41" t="n">
         <v>311.4877285664818</v>
       </c>
       <c r="N41" t="n">
-        <v>317.2852426969608</v>
+        <v>317.2852426969609</v>
       </c>
       <c r="O41" t="n">
         <v>297.4145888894179</v>
       </c>
       <c r="P41" t="n">
-        <v>248.1734276171332</v>
+        <v>248.1734276171333</v>
       </c>
       <c r="Q41" t="n">
-        <v>178.4607659550237</v>
+        <v>178.4607659550238</v>
       </c>
       <c r="R41" t="n">
-        <v>89.79009951709449</v>
+        <v>89.79009951709452</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,10 +37855,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>20.4333050520825</v>
+        <v>44.12755337977123</v>
       </c>
       <c r="J42" t="n">
-        <v>79.83770185885254</v>
+        <v>214.7158714301862</v>
       </c>
       <c r="K42" t="n">
         <v>149.2837922911598</v>
@@ -37870,16 +37870,16 @@
         <v>246.2931322782842</v>
       </c>
       <c r="N42" t="n">
-        <v>413.7492518729574</v>
+        <v>255.1768339739348</v>
       </c>
       <c r="O42" t="n">
-        <v>229.7897616392515</v>
+        <v>229.7897616392516</v>
       </c>
       <c r="P42" t="n">
-        <v>181.2531855058806</v>
+        <v>181.2531855058807</v>
       </c>
       <c r="Q42" t="n">
-        <v>112.9691469604239</v>
+        <v>112.969146960424</v>
       </c>
       <c r="R42" t="n">
         <v>148.85927498986</v>
@@ -37940,25 +37940,25 @@
         <v>121.0904079163419</v>
       </c>
       <c r="K43" t="n">
-        <v>82.59386819622837</v>
+        <v>124.5890876692058</v>
       </c>
       <c r="L43" t="n">
-        <v>490.7912967507201</v>
+        <v>110.6004951434828</v>
       </c>
       <c r="M43" t="n">
-        <v>117.1475339767207</v>
+        <v>534.442728698631</v>
       </c>
       <c r="N43" t="n">
-        <v>368.189866181686</v>
+        <v>517.705230286263</v>
       </c>
       <c r="O43" t="n">
-        <v>485.006411183165</v>
+        <v>103.4889118870001</v>
       </c>
       <c r="P43" t="n">
         <v>401.3391416378323</v>
       </c>
       <c r="Q43" t="n">
-        <v>50.01874334784338</v>
+        <v>202.9212659517818</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>42.06012558095524</v>
+        <v>42.06012558095526</v>
       </c>
       <c r="J44" t="n">
-        <v>139.2334515011801</v>
+        <v>139.2334515011802</v>
       </c>
       <c r="K44" t="n">
         <v>217.0031433876725</v>
       </c>
       <c r="L44" t="n">
-        <v>275.2686954786179</v>
+        <v>275.268695478618</v>
       </c>
       <c r="M44" t="n">
         <v>311.4877285664818</v>
       </c>
       <c r="N44" t="n">
-        <v>317.2852426969608</v>
+        <v>317.2852426969609</v>
       </c>
       <c r="O44" t="n">
         <v>297.4145888894179</v>
       </c>
       <c r="P44" t="n">
-        <v>248.1734276171332</v>
+        <v>248.1734276171339</v>
       </c>
       <c r="Q44" t="n">
-        <v>178.4607659550237</v>
+        <v>178.4607659550238</v>
       </c>
       <c r="R44" t="n">
-        <v>89.79009951709449</v>
+        <v>89.79009951709452</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,7 +38095,7 @@
         <v>44.12755337977123</v>
       </c>
       <c r="J45" t="n">
-        <v>79.83770185885254</v>
+        <v>214.7158714301862</v>
       </c>
       <c r="K45" t="n">
         <v>149.2837922911598</v>
@@ -38107,19 +38107,19 @@
         <v>246.2931322782842</v>
       </c>
       <c r="N45" t="n">
-        <v>255.1768339739347</v>
+        <v>255.1768339739348</v>
       </c>
       <c r="O45" t="n">
-        <v>229.7897616392515</v>
+        <v>229.7897616392516</v>
       </c>
       <c r="P45" t="n">
-        <v>181.2531855058806</v>
+        <v>181.2531855058807</v>
       </c>
       <c r="Q45" t="n">
-        <v>354.3680238902487</v>
+        <v>112.969146960424</v>
       </c>
       <c r="R45" t="n">
-        <v>42.33856763136923</v>
+        <v>148.85927498986</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38180,22 +38180,22 @@
         <v>332.3742814427153</v>
       </c>
       <c r="L46" t="n">
-        <v>490.7912967507201</v>
+        <v>490.7912967507202</v>
       </c>
       <c r="M46" t="n">
-        <v>415.2846140766779</v>
+        <v>117.1475339767207</v>
       </c>
       <c r="N46" t="n">
-        <v>517.7052302862629</v>
+        <v>115.6517728702224</v>
       </c>
       <c r="O46" t="n">
-        <v>103.4889118870001</v>
+        <v>485.006411183165</v>
       </c>
       <c r="P46" t="n">
-        <v>85.42378348297615</v>
+        <v>251.1942990988714</v>
       </c>
       <c r="Q46" t="n">
-        <v>50.01874334784338</v>
+        <v>202.9212659517818</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
